--- a/FeeneyWithHomes.xlsx
+++ b/FeeneyWithHomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\CampaignFinances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3076CF7-57C5-4237-B94F-0E83AD71390F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7D31B-5472-46B6-A3E3-39FE9C4F1FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{598CD24A-DF45-4E5C-861C-9C38CF6856E5}"/>
   </bookViews>
@@ -7295,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B83787F-6E6A-44FB-97E6-A909489D2DFD}">
   <dimension ref="A1:AA761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N30" workbookViewId="0">
-      <selection activeCell="Y761" sqref="Y761"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="1" sqref="V1:V1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7428,13 +7428,13 @@
         <v>30</v>
       </c>
       <c r="V2">
-        <v>363240</v>
+        <v>362790</v>
       </c>
       <c r="W2">
-        <v>345078</v>
+        <v>330139</v>
       </c>
       <c r="X2">
-        <v>381402</v>
+        <v>384557</v>
       </c>
       <c r="Y2">
         <v>20</v>
@@ -7499,13 +7499,13 @@
         <v>30</v>
       </c>
       <c r="V3">
-        <v>471236</v>
+        <v>469466</v>
       </c>
       <c r="W3">
-        <v>438249</v>
+        <v>436603</v>
       </c>
       <c r="X3">
-        <v>499510</v>
+        <v>497634</v>
       </c>
       <c r="Y3">
         <v>32</v>
@@ -7641,13 +7641,13 @@
         <v>30</v>
       </c>
       <c r="V5">
-        <v>380726</v>
+        <v>380803</v>
       </c>
       <c r="W5">
-        <v>361690</v>
+        <v>361763</v>
       </c>
       <c r="X5">
-        <v>403570</v>
+        <v>407459</v>
       </c>
       <c r="Y5">
         <v>2</v>
@@ -7783,13 +7783,13 @@
         <v>30</v>
       </c>
       <c r="V7">
-        <v>908170</v>
+        <v>907632</v>
       </c>
       <c r="W7">
-        <v>862762</v>
+        <v>862250</v>
       </c>
       <c r="X7">
-        <v>962660</v>
+        <v>962090</v>
       </c>
       <c r="Y7">
         <v>43</v>
@@ -7854,13 +7854,13 @@
         <v>30</v>
       </c>
       <c r="V8">
-        <v>547527</v>
+        <v>548313</v>
       </c>
       <c r="W8">
-        <v>503725</v>
+        <v>504448</v>
       </c>
       <c r="X8">
-        <v>591329</v>
+        <v>592178</v>
       </c>
       <c r="Y8">
         <v>32</v>
@@ -7925,13 +7925,13 @@
         <v>30</v>
       </c>
       <c r="V9">
-        <v>534641</v>
+        <v>536093</v>
       </c>
       <c r="W9">
-        <v>502563</v>
+        <v>498566</v>
       </c>
       <c r="X9">
-        <v>577412</v>
+        <v>573620</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -8073,13 +8073,13 @@
         <v>30</v>
       </c>
       <c r="V11">
-        <v>434598</v>
+        <v>434254</v>
       </c>
       <c r="W11">
-        <v>386792</v>
+        <v>386486</v>
       </c>
       <c r="X11">
-        <v>486750</v>
+        <v>477679</v>
       </c>
       <c r="Y11">
         <v>25</v>
@@ -8224,13 +8224,13 @@
         <v>30</v>
       </c>
       <c r="V13">
-        <v>169583</v>
+        <v>168700</v>
       </c>
       <c r="W13">
-        <v>147537</v>
+        <v>140021</v>
       </c>
       <c r="X13">
-        <v>191629</v>
+        <v>199066</v>
       </c>
       <c r="Y13">
         <v>22</v>
@@ -8378,13 +8378,13 @@
         <v>30</v>
       </c>
       <c r="V15">
-        <v>1070559</v>
+        <v>1069917</v>
       </c>
       <c r="W15">
-        <v>995620</v>
+        <v>995023</v>
       </c>
       <c r="X15">
-        <v>1145498</v>
+        <v>1144811</v>
       </c>
       <c r="Y15">
         <v>29</v>
@@ -8597,13 +8597,13 @@
         <v>30</v>
       </c>
       <c r="V18">
-        <v>390415</v>
+        <v>390398</v>
       </c>
       <c r="W18">
-        <v>366990</v>
+        <v>366974</v>
       </c>
       <c r="X18">
-        <v>409936</v>
+        <v>409918</v>
       </c>
       <c r="Y18">
         <v>24</v>
@@ -8739,13 +8739,13 @@
         <v>30</v>
       </c>
       <c r="V20">
-        <v>350207</v>
+        <v>350584</v>
       </c>
       <c r="W20">
-        <v>325693</v>
+        <v>329549</v>
       </c>
       <c r="X20">
-        <v>367717</v>
+        <v>368113</v>
       </c>
       <c r="Y20">
         <v>7</v>
@@ -8810,13 +8810,13 @@
         <v>30</v>
       </c>
       <c r="V21">
-        <v>652084</v>
+        <v>653238</v>
       </c>
       <c r="W21">
-        <v>612959</v>
+        <v>614044</v>
       </c>
       <c r="X21">
-        <v>704251</v>
+        <v>698965</v>
       </c>
       <c r="Y21">
         <v>29</v>
@@ -8881,13 +8881,13 @@
         <v>30</v>
       </c>
       <c r="V22">
-        <v>429132</v>
+        <v>428547</v>
       </c>
       <c r="W22">
-        <v>403384</v>
+        <v>398549</v>
       </c>
       <c r="X22">
-        <v>454880</v>
+        <v>449974</v>
       </c>
       <c r="Y22">
         <v>11</v>
@@ -9100,13 +9100,13 @@
         <v>30</v>
       </c>
       <c r="V25">
-        <v>169583</v>
+        <v>168700</v>
       </c>
       <c r="W25">
-        <v>147537</v>
+        <v>140021</v>
       </c>
       <c r="X25">
-        <v>191629</v>
+        <v>199066</v>
       </c>
       <c r="Y25">
         <v>22</v>
@@ -9254,13 +9254,13 @@
         <v>30</v>
       </c>
       <c r="V27">
-        <v>1070559</v>
+        <v>1069917</v>
       </c>
       <c r="W27">
-        <v>995620</v>
+        <v>995023</v>
       </c>
       <c r="X27">
-        <v>1145498</v>
+        <v>1144811</v>
       </c>
       <c r="Y27">
         <v>29</v>
@@ -9613,13 +9613,13 @@
         <v>30</v>
       </c>
       <c r="V32">
-        <v>401571</v>
+        <v>400885</v>
       </c>
       <c r="W32">
-        <v>373461</v>
+        <v>372823</v>
       </c>
       <c r="X32">
-        <v>429681</v>
+        <v>432956</v>
       </c>
       <c r="Y32">
         <v>32</v>
@@ -9690,13 +9690,13 @@
         <v>30</v>
       </c>
       <c r="V33">
-        <v>416265</v>
+        <v>416420</v>
       </c>
       <c r="W33">
-        <v>395452</v>
+        <v>395599</v>
       </c>
       <c r="X33">
-        <v>437078</v>
+        <v>437241</v>
       </c>
       <c r="Y33">
         <v>7</v>
@@ -9767,13 +9767,13 @@
         <v>30</v>
       </c>
       <c r="V34">
-        <v>505241</v>
+        <v>504978</v>
       </c>
       <c r="W34">
-        <v>474927</v>
+        <v>469630</v>
       </c>
       <c r="X34">
-        <v>545660</v>
+        <v>535277</v>
       </c>
       <c r="Y34">
         <v>20</v>
@@ -9844,13 +9844,13 @@
         <v>30</v>
       </c>
       <c r="V35">
-        <v>299868</v>
+        <v>300544</v>
       </c>
       <c r="W35">
-        <v>281876</v>
+        <v>282511</v>
       </c>
       <c r="X35">
-        <v>314861</v>
+        <v>321582</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -9995,13 +9995,13 @@
         <v>30</v>
       </c>
       <c r="V37">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W37">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X37">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y37">
         <v>22</v>
@@ -10235,13 +10235,13 @@
         <v>30</v>
       </c>
       <c r="V40">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W40">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X40">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y40">
         <v>22</v>
@@ -10315,13 +10315,13 @@
         <v>30</v>
       </c>
       <c r="V41">
-        <v>960164</v>
+        <v>960798</v>
       </c>
       <c r="W41">
-        <v>873749</v>
+        <v>893542</v>
       </c>
       <c r="X41">
-        <v>1036977</v>
+        <v>1028054</v>
       </c>
       <c r="Y41">
         <v>22</v>
@@ -10990,13 +10990,13 @@
         <v>30</v>
       </c>
       <c r="V50">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W50">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X50">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y50">
         <v>22</v>
@@ -11070,13 +11070,13 @@
         <v>30</v>
       </c>
       <c r="V51">
-        <v>1343336</v>
+        <v>1343478</v>
       </c>
       <c r="W51">
-        <v>1262736</v>
+        <v>1249435</v>
       </c>
       <c r="X51">
-        <v>1464236</v>
+        <v>1464391</v>
       </c>
       <c r="Y51">
         <v>6</v>
@@ -11224,13 +11224,13 @@
         <v>30</v>
       </c>
       <c r="V53">
-        <v>324977</v>
+        <v>325152</v>
       </c>
       <c r="W53">
-        <v>308728</v>
+        <v>308894</v>
       </c>
       <c r="X53">
-        <v>341226</v>
+        <v>344661</v>
       </c>
       <c r="Y53">
         <v>32</v>
@@ -11304,13 +11304,13 @@
         <v>30</v>
       </c>
       <c r="V54">
-        <v>511467</v>
+        <v>511559</v>
       </c>
       <c r="W54">
-        <v>485894</v>
+        <v>485981</v>
       </c>
       <c r="X54">
-        <v>537040</v>
+        <v>542253</v>
       </c>
       <c r="Y54">
         <v>32</v>
@@ -11384,13 +11384,13 @@
         <v>30</v>
       </c>
       <c r="V55">
-        <v>365271</v>
+        <v>365122</v>
       </c>
       <c r="W55">
-        <v>343355</v>
+        <v>343215</v>
       </c>
       <c r="X55">
-        <v>383535</v>
+        <v>383378</v>
       </c>
       <c r="Y55">
         <v>34</v>
@@ -11464,13 +11464,13 @@
         <v>30</v>
       </c>
       <c r="V56">
-        <v>539371</v>
+        <v>539153</v>
       </c>
       <c r="W56">
-        <v>501615</v>
+        <v>512195</v>
       </c>
       <c r="X56">
-        <v>566340</v>
+        <v>566111</v>
       </c>
       <c r="Y56">
         <v>32</v>
@@ -11544,13 +11544,13 @@
         <v>30</v>
       </c>
       <c r="V57">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W57">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X57">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y57">
         <v>22</v>
@@ -11618,13 +11618,13 @@
         <v>30</v>
       </c>
       <c r="V58">
-        <v>609163</v>
+        <v>609250</v>
       </c>
       <c r="W58">
-        <v>578705</v>
+        <v>578788</v>
       </c>
       <c r="X58">
-        <v>645713</v>
+        <v>645805</v>
       </c>
       <c r="Y58">
         <v>32</v>
@@ -11692,13 +11692,13 @@
         <v>30</v>
       </c>
       <c r="V59">
-        <v>704359</v>
+        <v>702199</v>
       </c>
       <c r="W59">
-        <v>648010</v>
+        <v>646023</v>
       </c>
       <c r="X59">
-        <v>767751</v>
+        <v>772419</v>
       </c>
       <c r="Y59">
         <v>6</v>
@@ -11772,13 +11772,13 @@
         <v>30</v>
       </c>
       <c r="V60">
-        <v>570322</v>
+        <v>570318</v>
       </c>
       <c r="W60">
-        <v>541806</v>
+        <v>541802</v>
       </c>
       <c r="X60">
-        <v>604541</v>
+        <v>604537</v>
       </c>
       <c r="Y60">
         <v>43</v>
@@ -11846,13 +11846,13 @@
         <v>30</v>
       </c>
       <c r="V61">
-        <v>453132</v>
+        <v>453300</v>
       </c>
       <c r="W61">
-        <v>407819</v>
+        <v>407970</v>
       </c>
       <c r="X61">
-        <v>489383</v>
+        <v>489564</v>
       </c>
       <c r="Y61">
         <v>33</v>
@@ -11926,13 +11926,13 @@
         <v>30</v>
       </c>
       <c r="V62">
-        <v>531204</v>
+        <v>530685</v>
       </c>
       <c r="W62">
-        <v>488708</v>
+        <v>493537</v>
       </c>
       <c r="X62">
-        <v>563076</v>
+        <v>557219</v>
       </c>
       <c r="Y62">
         <v>17</v>
@@ -12000,13 +12000,13 @@
         <v>30</v>
       </c>
       <c r="V63">
-        <v>448503</v>
+        <v>447033</v>
       </c>
       <c r="W63">
-        <v>408138</v>
+        <v>411270</v>
       </c>
       <c r="X63">
-        <v>484383</v>
+        <v>491736</v>
       </c>
       <c r="Y63">
         <v>2</v>
@@ -12074,13 +12074,13 @@
         <v>30</v>
       </c>
       <c r="V64">
-        <v>614948</v>
+        <v>614857</v>
       </c>
       <c r="W64">
-        <v>584201</v>
+        <v>584114</v>
       </c>
       <c r="X64">
-        <v>651845</v>
+        <v>645600</v>
       </c>
       <c r="Y64">
         <v>32</v>
@@ -12222,13 +12222,13 @@
         <v>30</v>
       </c>
       <c r="V66">
-        <v>159369</v>
+        <v>159191</v>
       </c>
       <c r="W66">
-        <v>146619</v>
+        <v>146456</v>
       </c>
       <c r="X66">
-        <v>172119</v>
+        <v>171926</v>
       </c>
       <c r="Y66">
         <v>32</v>
@@ -12450,13 +12450,13 @@
         <v>30</v>
       </c>
       <c r="V69">
-        <v>294543</v>
+        <v>294509</v>
       </c>
       <c r="W69">
-        <v>268034</v>
+        <v>268003</v>
       </c>
       <c r="X69">
-        <v>323997</v>
+        <v>323960</v>
       </c>
       <c r="Y69">
         <v>32</v>
@@ -12598,13 +12598,13 @@
         <v>30</v>
       </c>
       <c r="V71">
-        <v>556376</v>
+        <v>555497</v>
       </c>
       <c r="W71">
-        <v>500738</v>
+        <v>499947</v>
       </c>
       <c r="X71">
-        <v>595322</v>
+        <v>599937</v>
       </c>
       <c r="Y71">
         <v>32</v>
@@ -12678,13 +12678,13 @@
         <v>30</v>
       </c>
       <c r="V72">
-        <v>832458</v>
+        <v>827119</v>
       </c>
       <c r="W72">
-        <v>774186</v>
+        <v>760949</v>
       </c>
       <c r="X72">
-        <v>899055</v>
+        <v>901560</v>
       </c>
       <c r="Y72">
         <v>4</v>
@@ -12918,13 +12918,13 @@
         <v>30</v>
       </c>
       <c r="V75">
-        <v>1052842</v>
+        <v>1053650</v>
       </c>
       <c r="W75">
-        <v>905444</v>
+        <v>916675</v>
       </c>
       <c r="X75">
-        <v>1179183</v>
+        <v>1190625</v>
       </c>
       <c r="Y75">
         <v>4</v>
@@ -12992,13 +12992,13 @@
         <v>30</v>
       </c>
       <c r="V76">
-        <v>117968</v>
+        <v>117834</v>
       </c>
       <c r="W76">
-        <v>101452</v>
+        <v>100159</v>
       </c>
       <c r="X76">
-        <v>139202</v>
+        <v>137866</v>
       </c>
       <c r="Y76">
         <v>41</v>
@@ -13146,13 +13146,13 @@
         <v>30</v>
       </c>
       <c r="V78">
-        <v>392126</v>
+        <v>392639</v>
       </c>
       <c r="W78">
-        <v>364677</v>
+        <v>365154</v>
       </c>
       <c r="X78">
-        <v>423496</v>
+        <v>420124</v>
       </c>
       <c r="Y78">
         <v>34</v>
@@ -13226,13 +13226,13 @@
         <v>30</v>
       </c>
       <c r="V79">
-        <v>245241</v>
+        <v>245158</v>
       </c>
       <c r="W79">
-        <v>228074</v>
+        <v>225545</v>
       </c>
       <c r="X79">
-        <v>259955</v>
+        <v>259867</v>
       </c>
       <c r="Y79">
         <v>43</v>
@@ -13300,13 +13300,13 @@
         <v>30</v>
       </c>
       <c r="V80">
-        <v>620151</v>
+        <v>620459</v>
       </c>
       <c r="W80">
-        <v>589143</v>
+        <v>589436</v>
       </c>
       <c r="X80">
-        <v>657360</v>
+        <v>651482</v>
       </c>
       <c r="Y80">
         <v>43</v>
@@ -13374,13 +13374,13 @@
         <v>30</v>
       </c>
       <c r="V81">
-        <v>807449</v>
+        <v>805698</v>
       </c>
       <c r="W81">
-        <v>767077</v>
+        <v>757356</v>
       </c>
       <c r="X81">
-        <v>847821</v>
+        <v>845983</v>
       </c>
       <c r="Y81">
         <v>4</v>
@@ -13602,13 +13602,13 @@
         <v>30</v>
       </c>
       <c r="V84">
-        <v>1891194</v>
+        <v>1883712</v>
       </c>
       <c r="W84">
-        <v>1626427</v>
+        <v>1657667</v>
       </c>
       <c r="X84">
-        <v>2193785</v>
+        <v>2128595</v>
       </c>
       <c r="Y84">
         <v>3</v>
@@ -13750,13 +13750,13 @@
         <v>30</v>
       </c>
       <c r="V86">
-        <v>395922</v>
+        <v>396063</v>
       </c>
       <c r="W86">
-        <v>376126</v>
+        <v>376260</v>
       </c>
       <c r="X86">
-        <v>415718</v>
+        <v>415866</v>
       </c>
       <c r="Y86">
         <v>32</v>
@@ -13830,13 +13830,13 @@
         <v>30</v>
       </c>
       <c r="V87">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W87">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X87">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y87">
         <v>22</v>
@@ -13910,13 +13910,13 @@
         <v>30</v>
       </c>
       <c r="V88">
-        <v>560551</v>
+        <v>559757</v>
       </c>
       <c r="W88">
-        <v>532523</v>
+        <v>531769</v>
       </c>
       <c r="X88">
-        <v>588579</v>
+        <v>587745</v>
       </c>
       <c r="Y88">
         <v>32</v>
@@ -14227,13 +14227,13 @@
         <v>30</v>
       </c>
       <c r="V92">
-        <v>756751</v>
+        <v>756057</v>
       </c>
       <c r="W92">
-        <v>703778</v>
+        <v>703133</v>
       </c>
       <c r="X92">
-        <v>794589</v>
+        <v>808981</v>
       </c>
       <c r="Y92">
         <v>32</v>
@@ -14307,13 +14307,13 @@
         <v>30</v>
       </c>
       <c r="V93">
-        <v>401213</v>
+        <v>400885</v>
       </c>
       <c r="W93">
-        <v>373128</v>
+        <v>372823</v>
       </c>
       <c r="X93">
-        <v>433310</v>
+        <v>432956</v>
       </c>
       <c r="Y93">
         <v>32</v>
@@ -14387,13 +14387,13 @@
         <v>30</v>
       </c>
       <c r="V94">
-        <v>1382003</v>
+        <v>1382288</v>
       </c>
       <c r="W94">
-        <v>1229983</v>
+        <v>1230236</v>
       </c>
       <c r="X94">
-        <v>1547843</v>
+        <v>1548163</v>
       </c>
       <c r="Y94">
         <v>18</v>
@@ -14547,13 +14547,13 @@
         <v>30</v>
       </c>
       <c r="V96">
-        <v>97076</v>
+        <v>97126</v>
       </c>
       <c r="W96">
-        <v>97076</v>
+        <v>97126</v>
       </c>
       <c r="X96">
-        <v>97076</v>
+        <v>97126</v>
       </c>
       <c r="Y96">
         <v>41</v>
@@ -14621,13 +14621,13 @@
         <v>30</v>
       </c>
       <c r="V97">
-        <v>403237</v>
+        <v>402566</v>
       </c>
       <c r="W97">
-        <v>370978</v>
+        <v>374386</v>
       </c>
       <c r="X97">
-        <v>431464</v>
+        <v>430746</v>
       </c>
       <c r="Y97">
         <v>32</v>
@@ -14695,13 +14695,13 @@
         <v>30</v>
       </c>
       <c r="V98">
-        <v>403237</v>
+        <v>402566</v>
       </c>
       <c r="W98">
-        <v>370978</v>
+        <v>374386</v>
       </c>
       <c r="X98">
-        <v>431464</v>
+        <v>430746</v>
       </c>
       <c r="Y98">
         <v>32</v>
@@ -14775,13 +14775,13 @@
         <v>30</v>
       </c>
       <c r="V99">
-        <v>535170</v>
+        <v>536309</v>
       </c>
       <c r="W99">
-        <v>497708</v>
+        <v>493404</v>
       </c>
       <c r="X99">
-        <v>567280</v>
+        <v>573851</v>
       </c>
       <c r="Y99">
         <v>16</v>
@@ -14855,13 +14855,13 @@
         <v>30</v>
       </c>
       <c r="V100">
-        <v>553917</v>
+        <v>554634</v>
       </c>
       <c r="W100">
-        <v>526221</v>
+        <v>526902</v>
       </c>
       <c r="X100">
-        <v>581613</v>
+        <v>582366</v>
       </c>
       <c r="Y100">
         <v>32</v>
@@ -14935,13 +14935,13 @@
         <v>30</v>
       </c>
       <c r="V101">
-        <v>688436</v>
+        <v>688652</v>
       </c>
       <c r="W101">
-        <v>647130</v>
+        <v>654219</v>
       </c>
       <c r="X101">
-        <v>729742</v>
+        <v>736858</v>
       </c>
       <c r="Y101">
         <v>29</v>
@@ -15009,13 +15009,13 @@
         <v>30</v>
       </c>
       <c r="V102">
-        <v>252041</v>
+        <v>251837</v>
       </c>
       <c r="W102">
-        <v>219276</v>
+        <v>216580</v>
       </c>
       <c r="X102">
-        <v>274725</v>
+        <v>271984</v>
       </c>
       <c r="Y102">
         <v>32</v>
@@ -15083,13 +15083,13 @@
         <v>30</v>
       </c>
       <c r="V103">
-        <v>346604</v>
+        <v>346878</v>
       </c>
       <c r="W103">
-        <v>315410</v>
+        <v>319128</v>
       </c>
       <c r="X103">
-        <v>377798</v>
+        <v>385035</v>
       </c>
       <c r="Y103">
         <v>32</v>
@@ -15157,13 +15157,13 @@
         <v>30</v>
       </c>
       <c r="V104">
-        <v>462495</v>
+        <v>462716</v>
       </c>
       <c r="W104">
-        <v>439370</v>
+        <v>439580</v>
       </c>
       <c r="X104">
-        <v>485620</v>
+        <v>485852</v>
       </c>
       <c r="Y104">
         <v>32</v>
@@ -15231,13 +15231,13 @@
         <v>30</v>
       </c>
       <c r="V105">
-        <v>619316</v>
+        <v>619516</v>
       </c>
       <c r="W105">
-        <v>588350</v>
+        <v>588540</v>
       </c>
       <c r="X105">
-        <v>650282</v>
+        <v>650492</v>
       </c>
       <c r="Y105">
         <v>32</v>
@@ -15379,13 +15379,13 @@
         <v>30</v>
       </c>
       <c r="V107">
-        <v>605614</v>
+        <v>605607</v>
       </c>
       <c r="W107">
-        <v>563221</v>
+        <v>575327</v>
       </c>
       <c r="X107">
-        <v>635895</v>
+        <v>635887</v>
       </c>
       <c r="Y107">
         <v>42</v>
@@ -15607,13 +15607,13 @@
         <v>30</v>
       </c>
       <c r="V110">
-        <v>231577</v>
+        <v>231276</v>
       </c>
       <c r="W110">
-        <v>213051</v>
+        <v>212774</v>
       </c>
       <c r="X110">
-        <v>250103</v>
+        <v>249778</v>
       </c>
       <c r="Y110">
         <v>33</v>
@@ -15687,13 +15687,13 @@
         <v>30</v>
       </c>
       <c r="V111">
-        <v>464077</v>
+        <v>468747</v>
       </c>
       <c r="W111">
-        <v>413029</v>
+        <v>403122</v>
       </c>
       <c r="X111">
-        <v>533689</v>
+        <v>543747</v>
       </c>
       <c r="Y111">
         <v>32</v>
@@ -15767,13 +15767,13 @@
         <v>30</v>
       </c>
       <c r="V112">
-        <v>641883</v>
+        <v>640517</v>
       </c>
       <c r="W112">
-        <v>590532</v>
+        <v>602086</v>
       </c>
       <c r="X112">
-        <v>693234</v>
+        <v>685353</v>
       </c>
       <c r="Y112">
         <v>2</v>
@@ -15921,13 +15921,13 @@
         <v>30</v>
       </c>
       <c r="V114">
-        <v>312400</v>
+        <v>312710</v>
       </c>
       <c r="W114">
-        <v>281160</v>
+        <v>281439</v>
       </c>
       <c r="X114">
-        <v>331144</v>
+        <v>334600</v>
       </c>
       <c r="Y114">
         <v>32</v>
@@ -15995,13 +15995,13 @@
         <v>30</v>
       </c>
       <c r="V115">
-        <v>511467</v>
+        <v>511559</v>
       </c>
       <c r="W115">
-        <v>485894</v>
+        <v>485981</v>
       </c>
       <c r="X115">
-        <v>537040</v>
+        <v>542253</v>
       </c>
       <c r="Y115">
         <v>32</v>
@@ -16069,13 +16069,13 @@
         <v>30</v>
       </c>
       <c r="V116">
-        <v>363240</v>
+        <v>362790</v>
       </c>
       <c r="W116">
-        <v>345078</v>
+        <v>330139</v>
       </c>
       <c r="X116">
-        <v>381402</v>
+        <v>384557</v>
       </c>
       <c r="Y116">
         <v>20</v>
@@ -16143,13 +16143,13 @@
         <v>30</v>
       </c>
       <c r="V117">
-        <v>297726</v>
+        <v>297965</v>
       </c>
       <c r="W117">
-        <v>259022</v>
+        <v>262209</v>
       </c>
       <c r="X117">
-        <v>321544</v>
+        <v>321802</v>
       </c>
       <c r="Y117">
         <v>13</v>
@@ -16217,13 +16217,13 @@
         <v>30</v>
       </c>
       <c r="V118">
-        <v>350991</v>
+        <v>351144</v>
       </c>
       <c r="W118">
-        <v>312382</v>
+        <v>319541</v>
       </c>
       <c r="X118">
-        <v>375560</v>
+        <v>379236</v>
       </c>
       <c r="Y118">
         <v>32</v>
@@ -16371,13 +16371,13 @@
         <v>30</v>
       </c>
       <c r="V120">
-        <v>618263</v>
+        <v>619117</v>
       </c>
       <c r="W120">
-        <v>581167</v>
+        <v>575779</v>
       </c>
       <c r="X120">
-        <v>661541</v>
+        <v>656264</v>
       </c>
       <c r="Y120">
         <v>41</v>
@@ -16605,13 +16605,13 @@
         <v>30</v>
       </c>
       <c r="V123">
-        <v>429314</v>
+        <v>429178</v>
       </c>
       <c r="W123">
-        <v>407848</v>
+        <v>407719</v>
       </c>
       <c r="X123">
-        <v>455073</v>
+        <v>459220</v>
       </c>
       <c r="Y123">
         <v>32</v>
@@ -16685,13 +16685,13 @@
         <v>30</v>
       </c>
       <c r="V124">
-        <v>832458</v>
+        <v>827119</v>
       </c>
       <c r="W124">
-        <v>774186</v>
+        <v>760949</v>
       </c>
       <c r="X124">
-        <v>899055</v>
+        <v>901560</v>
       </c>
       <c r="Y124">
         <v>4</v>
@@ -16765,13 +16765,13 @@
         <v>30</v>
       </c>
       <c r="V125">
-        <v>322973</v>
+        <v>323459</v>
       </c>
       <c r="W125">
-        <v>303595</v>
+        <v>304051</v>
       </c>
       <c r="X125">
-        <v>342351</v>
+        <v>346101</v>
       </c>
       <c r="Y125">
         <v>32</v>
@@ -16839,13 +16839,13 @@
         <v>30</v>
       </c>
       <c r="V126">
-        <v>1131227</v>
+        <v>1131003</v>
       </c>
       <c r="W126">
-        <v>1052041</v>
+        <v>1040523</v>
       </c>
       <c r="X126">
-        <v>1233037</v>
+        <v>1244103</v>
       </c>
       <c r="Y126">
         <v>32</v>
@@ -16913,13 +16913,13 @@
         <v>30</v>
       </c>
       <c r="V127">
-        <v>447727</v>
+        <v>448667</v>
       </c>
       <c r="W127">
-        <v>416386</v>
+        <v>412774</v>
       </c>
       <c r="X127">
-        <v>470113</v>
+        <v>471100</v>
       </c>
       <c r="Y127">
         <v>32</v>
@@ -16993,13 +16993,13 @@
         <v>30</v>
       </c>
       <c r="V128">
-        <v>309147</v>
+        <v>309296</v>
       </c>
       <c r="W128">
-        <v>290598</v>
+        <v>287645</v>
       </c>
       <c r="X128">
-        <v>327696</v>
+        <v>327854</v>
       </c>
       <c r="Y128">
         <v>32</v>
@@ -17067,13 +17067,13 @@
         <v>30</v>
       </c>
       <c r="V129">
-        <v>404562</v>
+        <v>404131</v>
       </c>
       <c r="W129">
-        <v>384334</v>
+        <v>383924</v>
       </c>
       <c r="X129">
-        <v>424790</v>
+        <v>428379</v>
       </c>
       <c r="Y129">
         <v>32</v>
@@ -17147,13 +17147,13 @@
         <v>30</v>
       </c>
       <c r="V130">
-        <v>386285</v>
+        <v>386656</v>
       </c>
       <c r="W130">
-        <v>366971</v>
+        <v>367323</v>
       </c>
       <c r="X130">
-        <v>413325</v>
+        <v>409855</v>
       </c>
       <c r="Y130">
         <v>13</v>
@@ -17227,13 +17227,13 @@
         <v>30</v>
       </c>
       <c r="V131">
-        <v>552432</v>
+        <v>552138</v>
       </c>
       <c r="W131">
-        <v>513762</v>
+        <v>513488</v>
       </c>
       <c r="X131">
-        <v>591102</v>
+        <v>601830</v>
       </c>
       <c r="Y131">
         <v>43</v>
@@ -17381,13 +17381,13 @@
         <v>30</v>
       </c>
       <c r="V133">
-        <v>798308</v>
+        <v>797898</v>
       </c>
       <c r="W133">
-        <v>726460</v>
+        <v>726087</v>
       </c>
       <c r="X133">
-        <v>870156</v>
+        <v>869709</v>
       </c>
       <c r="Y133">
         <v>32</v>
@@ -17461,13 +17461,13 @@
         <v>30</v>
       </c>
       <c r="V134">
-        <v>494561</v>
+        <v>493969</v>
       </c>
       <c r="W134">
-        <v>454996</v>
+        <v>449512</v>
       </c>
       <c r="X134">
-        <v>519289</v>
+        <v>523607</v>
       </c>
       <c r="Y134">
         <v>43</v>
@@ -17541,13 +17541,13 @@
         <v>30</v>
       </c>
       <c r="V135">
-        <v>672578</v>
+        <v>671828</v>
       </c>
       <c r="W135">
-        <v>638949</v>
+        <v>631518</v>
       </c>
       <c r="X135">
-        <v>712933</v>
+        <v>712138</v>
       </c>
       <c r="Y135">
         <v>32</v>
@@ -17615,13 +17615,13 @@
         <v>30</v>
       </c>
       <c r="V136">
-        <v>248019</v>
+        <v>247991</v>
       </c>
       <c r="W136">
-        <v>235618</v>
+        <v>235591</v>
       </c>
       <c r="X136">
-        <v>260420</v>
+        <v>260391</v>
       </c>
       <c r="Y136">
         <v>32</v>
@@ -17695,13 +17695,13 @@
         <v>30</v>
       </c>
       <c r="V137">
-        <v>750661</v>
+        <v>750652</v>
       </c>
       <c r="W137">
-        <v>690608</v>
+        <v>690600</v>
       </c>
       <c r="X137">
-        <v>818220</v>
+        <v>818211</v>
       </c>
       <c r="Y137">
         <v>12</v>
@@ -17769,13 +17769,13 @@
         <v>30</v>
       </c>
       <c r="V138">
-        <v>298443</v>
+        <v>298614</v>
       </c>
       <c r="W138">
-        <v>274568</v>
+        <v>277711</v>
       </c>
       <c r="X138">
-        <v>319334</v>
+        <v>319517</v>
       </c>
       <c r="Y138">
         <v>43</v>
@@ -17849,13 +17849,13 @@
         <v>30</v>
       </c>
       <c r="V139">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W139">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X139">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y139">
         <v>22</v>
@@ -18003,13 +18003,13 @@
         <v>30</v>
       </c>
       <c r="V141">
-        <v>588512</v>
+        <v>588626</v>
       </c>
       <c r="W141">
-        <v>547316</v>
+        <v>547422</v>
       </c>
       <c r="X141">
-        <v>617938</v>
+        <v>618057</v>
       </c>
       <c r="Y141">
         <v>2</v>
@@ -18083,13 +18083,13 @@
         <v>30</v>
       </c>
       <c r="V142">
-        <v>529148</v>
+        <v>528613</v>
       </c>
       <c r="W142">
-        <v>492108</v>
+        <v>491610</v>
       </c>
       <c r="X142">
-        <v>560897</v>
+        <v>570902</v>
       </c>
       <c r="Y142">
         <v>20</v>
@@ -18157,13 +18157,13 @@
         <v>30</v>
       </c>
       <c r="V143">
-        <v>231577</v>
+        <v>231276</v>
       </c>
       <c r="W143">
-        <v>213051</v>
+        <v>212774</v>
       </c>
       <c r="X143">
-        <v>250103</v>
+        <v>249778</v>
       </c>
       <c r="Y143">
         <v>33</v>
@@ -18311,13 +18311,13 @@
         <v>30</v>
       </c>
       <c r="V145">
-        <v>538748</v>
+        <v>538533</v>
       </c>
       <c r="W145">
-        <v>501036</v>
+        <v>500836</v>
       </c>
       <c r="X145">
-        <v>576460</v>
+        <v>576230</v>
       </c>
       <c r="Y145">
         <v>20</v>
@@ -18459,13 +18459,13 @@
         <v>30</v>
       </c>
       <c r="V147">
-        <v>685936</v>
+        <v>685754</v>
       </c>
       <c r="W147">
-        <v>644780</v>
+        <v>637751</v>
       </c>
       <c r="X147">
-        <v>720233</v>
+        <v>726899</v>
       </c>
       <c r="Y147">
         <v>17</v>
@@ -18616,13 +18616,13 @@
         <v>30</v>
       </c>
       <c r="V149">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W149">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X149">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y149">
         <v>22</v>
@@ -18690,13 +18690,13 @@
         <v>30</v>
       </c>
       <c r="V150">
-        <v>733160</v>
+        <v>723146</v>
       </c>
       <c r="W150">
-        <v>674507</v>
+        <v>665294</v>
       </c>
       <c r="X150">
-        <v>791813</v>
+        <v>780998</v>
       </c>
       <c r="Y150">
         <v>25</v>
@@ -18764,13 +18764,13 @@
         <v>30</v>
       </c>
       <c r="V151">
-        <v>814811</v>
+        <v>815210</v>
       </c>
       <c r="W151">
-        <v>774070</v>
+        <v>774450</v>
       </c>
       <c r="X151">
-        <v>871848</v>
+        <v>872275</v>
       </c>
       <c r="Y151">
         <v>18</v>
@@ -19078,13 +19078,13 @@
         <v>30</v>
       </c>
       <c r="V155">
-        <v>537943</v>
+        <v>537144</v>
       </c>
       <c r="W155">
-        <v>489528</v>
+        <v>494172</v>
       </c>
       <c r="X155">
-        <v>564840</v>
+        <v>569373</v>
       </c>
       <c r="Y155">
         <v>32</v>
@@ -19158,13 +19158,13 @@
         <v>30</v>
       </c>
       <c r="V156">
-        <v>745936</v>
+        <v>745010</v>
       </c>
       <c r="W156">
-        <v>701180</v>
+        <v>700309</v>
       </c>
       <c r="X156">
-        <v>790692</v>
+        <v>789711</v>
       </c>
       <c r="Y156">
         <v>33</v>
@@ -19318,13 +19318,13 @@
         <v>30</v>
       </c>
       <c r="V158">
-        <v>2042877</v>
+        <v>2037369</v>
       </c>
       <c r="W158">
-        <v>1736445</v>
+        <v>1731764</v>
       </c>
       <c r="X158">
-        <v>2328880</v>
+        <v>2383722</v>
       </c>
       <c r="Y158">
         <v>43</v>
@@ -19466,13 +19466,13 @@
         <v>30</v>
       </c>
       <c r="V160">
-        <v>518800</v>
+        <v>519200</v>
       </c>
       <c r="W160">
-        <v>472108</v>
+        <v>472472</v>
       </c>
       <c r="X160">
-        <v>570680</v>
+        <v>571120</v>
       </c>
       <c r="Y160">
         <v>41</v>
@@ -19546,13 +19546,13 @@
         <v>30</v>
       </c>
       <c r="V161">
-        <v>416265</v>
+        <v>416420</v>
       </c>
       <c r="W161">
-        <v>395452</v>
+        <v>395599</v>
       </c>
       <c r="X161">
-        <v>437078</v>
+        <v>437241</v>
       </c>
       <c r="Y161">
         <v>7</v>
@@ -19694,13 +19694,13 @@
         <v>30</v>
       </c>
       <c r="V163">
-        <v>677309</v>
+        <v>677204</v>
       </c>
       <c r="W163">
-        <v>623124</v>
+        <v>629800</v>
       </c>
       <c r="X163">
-        <v>731494</v>
+        <v>738152</v>
       </c>
       <c r="Y163">
         <v>1</v>
@@ -19774,13 +19774,13 @@
         <v>30</v>
       </c>
       <c r="V164">
-        <v>418229</v>
+        <v>418780</v>
       </c>
       <c r="W164">
-        <v>384771</v>
+        <v>389465</v>
       </c>
       <c r="X164">
-        <v>451687</v>
+        <v>448095</v>
       </c>
       <c r="Y164">
         <v>10</v>
@@ -19848,13 +19848,13 @@
         <v>30</v>
       </c>
       <c r="V165">
-        <v>484503</v>
+        <v>484841</v>
       </c>
       <c r="W165">
-        <v>455433</v>
+        <v>460599</v>
       </c>
       <c r="X165">
-        <v>513573</v>
+        <v>513931</v>
       </c>
       <c r="Y165">
         <v>32</v>
@@ -19928,13 +19928,13 @@
         <v>30</v>
       </c>
       <c r="V166">
-        <v>765538</v>
+        <v>766409</v>
       </c>
       <c r="W166">
-        <v>727261</v>
+        <v>728089</v>
       </c>
       <c r="X166">
-        <v>834436</v>
+        <v>827722</v>
       </c>
       <c r="Y166">
         <v>2</v>
@@ -20088,13 +20088,13 @@
         <v>30</v>
       </c>
       <c r="V168">
-        <v>718881</v>
+        <v>719124</v>
       </c>
       <c r="W168">
-        <v>675748</v>
+        <v>683168</v>
       </c>
       <c r="X168">
-        <v>754825</v>
+        <v>755080</v>
       </c>
       <c r="Y168">
         <v>34</v>
@@ -20242,13 +20242,13 @@
         <v>30</v>
       </c>
       <c r="V170">
-        <v>1980494</v>
+        <v>1979868</v>
       </c>
       <c r="W170">
-        <v>1841859</v>
+        <v>1861076</v>
       </c>
       <c r="X170">
-        <v>2099324</v>
+        <v>2118459</v>
       </c>
       <c r="Y170">
         <v>4</v>
@@ -20322,13 +20322,13 @@
         <v>30</v>
       </c>
       <c r="V171">
-        <v>688041</v>
+        <v>688383</v>
       </c>
       <c r="W171">
-        <v>646759</v>
+        <v>633312</v>
       </c>
       <c r="X171">
-        <v>736204</v>
+        <v>729686</v>
       </c>
       <c r="Y171">
         <v>43</v>
@@ -20402,13 +20402,13 @@
         <v>30</v>
       </c>
       <c r="V172">
-        <v>505241</v>
+        <v>504978</v>
       </c>
       <c r="W172">
-        <v>474927</v>
+        <v>469630</v>
       </c>
       <c r="X172">
-        <v>545660</v>
+        <v>535277</v>
       </c>
       <c r="Y172">
         <v>20</v>
@@ -20630,13 +20630,13 @@
         <v>30</v>
       </c>
       <c r="V175">
-        <v>1182901</v>
+        <v>1181255</v>
       </c>
       <c r="W175">
-        <v>1064611</v>
+        <v>1098567</v>
       </c>
       <c r="X175">
-        <v>1324849</v>
+        <v>1299380</v>
       </c>
       <c r="Y175">
         <v>30</v>
@@ -21012,13 +21012,13 @@
         <v>30</v>
       </c>
       <c r="V180">
-        <v>852072</v>
+        <v>854879</v>
       </c>
       <c r="W180">
-        <v>775386</v>
+        <v>777940</v>
       </c>
       <c r="X180">
-        <v>937279</v>
+        <v>940367</v>
       </c>
       <c r="Y180">
         <v>43</v>
@@ -21172,13 +21172,13 @@
         <v>30</v>
       </c>
       <c r="V182">
-        <v>993022</v>
+        <v>993266</v>
       </c>
       <c r="W182">
-        <v>943371</v>
+        <v>943603</v>
       </c>
       <c r="X182">
-        <v>1082394</v>
+        <v>1072727</v>
       </c>
       <c r="Y182">
         <v>33</v>
@@ -21329,13 +21329,13 @@
         <v>30</v>
       </c>
       <c r="V184">
-        <v>797991</v>
+        <v>797858</v>
       </c>
       <c r="W184">
-        <v>758091</v>
+        <v>757965</v>
       </c>
       <c r="X184">
-        <v>837891</v>
+        <v>837751</v>
       </c>
       <c r="Y184">
         <v>12</v>
@@ -21409,13 +21409,13 @@
         <v>30</v>
       </c>
       <c r="V185">
-        <v>936126</v>
+        <v>930193</v>
       </c>
       <c r="W185">
-        <v>870597</v>
+        <v>874381</v>
       </c>
       <c r="X185">
-        <v>1039100</v>
+        <v>1023212</v>
       </c>
       <c r="Y185">
         <v>5</v>
@@ -21483,13 +21483,13 @@
         <v>30</v>
       </c>
       <c r="V186">
-        <v>2031033</v>
+        <v>2038772</v>
       </c>
       <c r="W186">
-        <v>1787309</v>
+        <v>1814507</v>
       </c>
       <c r="X186">
-        <v>2376309</v>
+        <v>2426139</v>
       </c>
       <c r="Y186">
         <v>18</v>
@@ -21637,13 +21637,13 @@
         <v>30</v>
       </c>
       <c r="V188">
-        <v>299868</v>
+        <v>300544</v>
       </c>
       <c r="W188">
-        <v>281876</v>
+        <v>282511</v>
       </c>
       <c r="X188">
-        <v>314861</v>
+        <v>321582</v>
       </c>
       <c r="Y188">
         <v>7</v>
@@ -21717,13 +21717,13 @@
         <v>30</v>
       </c>
       <c r="V189">
-        <v>299868</v>
+        <v>300544</v>
       </c>
       <c r="W189">
-        <v>281876</v>
+        <v>282511</v>
       </c>
       <c r="X189">
-        <v>314861</v>
+        <v>321582</v>
       </c>
       <c r="Y189">
         <v>7</v>
@@ -21791,13 +21791,13 @@
         <v>30</v>
       </c>
       <c r="V190">
-        <v>1074156</v>
+        <v>1074268</v>
       </c>
       <c r="W190">
-        <v>966740</v>
+        <v>966841</v>
       </c>
       <c r="X190">
-        <v>1192313</v>
+        <v>1192437</v>
       </c>
       <c r="Y190">
         <v>42</v>
@@ -22259,13 +22259,13 @@
         <v>30</v>
       </c>
       <c r="V196">
-        <v>458441</v>
+        <v>458874</v>
       </c>
       <c r="W196">
-        <v>430935</v>
+        <v>431342</v>
       </c>
       <c r="X196">
-        <v>481363</v>
+        <v>481818</v>
       </c>
       <c r="Y196">
         <v>8</v>
@@ -22487,13 +22487,13 @@
         <v>30</v>
       </c>
       <c r="V199">
-        <v>411239</v>
+        <v>411264</v>
       </c>
       <c r="W199">
-        <v>390677</v>
+        <v>390701</v>
       </c>
       <c r="X199">
-        <v>431801</v>
+        <v>431827</v>
       </c>
       <c r="Y199">
         <v>20</v>
@@ -22807,13 +22807,13 @@
         <v>30</v>
       </c>
       <c r="V203">
-        <v>560551</v>
+        <v>559757</v>
       </c>
       <c r="W203">
-        <v>532523</v>
+        <v>531769</v>
       </c>
       <c r="X203">
-        <v>588579</v>
+        <v>587745</v>
       </c>
       <c r="Y203">
         <v>32</v>
@@ -22967,13 +22967,13 @@
         <v>30</v>
       </c>
       <c r="V205">
-        <v>653027</v>
+        <v>654104</v>
       </c>
       <c r="W205">
-        <v>613845</v>
+        <v>601776</v>
       </c>
       <c r="X205">
-        <v>731390</v>
+        <v>712973</v>
       </c>
       <c r="Y205">
         <v>31</v>
@@ -23041,13 +23041,13 @@
         <v>30</v>
       </c>
       <c r="V206">
-        <v>1198111</v>
+        <v>1198685</v>
       </c>
       <c r="W206">
-        <v>1114243</v>
+        <v>1114777</v>
       </c>
       <c r="X206">
-        <v>1329903</v>
+        <v>1342527</v>
       </c>
       <c r="Y206">
         <v>29</v>
@@ -23121,13 +23121,13 @@
         <v>30</v>
       </c>
       <c r="V207">
-        <v>1308398</v>
+        <v>0</v>
       </c>
       <c r="W207">
-        <v>1203726</v>
+        <v>0</v>
       </c>
       <c r="X207">
-        <v>1478490</v>
+        <v>0</v>
       </c>
       <c r="Y207">
         <v>18</v>
@@ -23201,13 +23201,13 @@
         <v>30</v>
       </c>
       <c r="V208">
-        <v>392126</v>
+        <v>392639</v>
       </c>
       <c r="W208">
-        <v>364677</v>
+        <v>365154</v>
       </c>
       <c r="X208">
-        <v>423496</v>
+        <v>420124</v>
       </c>
       <c r="Y208">
         <v>34</v>
@@ -23349,13 +23349,13 @@
         <v>30</v>
       </c>
       <c r="V210">
-        <v>742188</v>
+        <v>740534</v>
       </c>
       <c r="W210">
-        <v>705079</v>
+        <v>703507</v>
       </c>
       <c r="X210">
-        <v>779297</v>
+        <v>777561</v>
       </c>
       <c r="Y210">
         <v>32</v>
@@ -23429,13 +23429,13 @@
         <v>30</v>
       </c>
       <c r="V211">
-        <v>569853</v>
+        <v>569276</v>
       </c>
       <c r="W211">
-        <v>541360</v>
+        <v>540812</v>
       </c>
       <c r="X211">
-        <v>598346</v>
+        <v>597740</v>
       </c>
       <c r="Y211">
         <v>32</v>
@@ -23663,13 +23663,13 @@
         <v>30</v>
       </c>
       <c r="V214">
-        <v>1183386</v>
+        <v>1184289</v>
       </c>
       <c r="W214">
-        <v>1112383</v>
+        <v>1089546</v>
       </c>
       <c r="X214">
-        <v>1254389</v>
+        <v>1279032</v>
       </c>
       <c r="Y214">
         <v>32</v>
@@ -23737,13 +23737,13 @@
         <v>30</v>
       </c>
       <c r="V215">
-        <v>346604</v>
+        <v>346878</v>
       </c>
       <c r="W215">
-        <v>315410</v>
+        <v>319128</v>
       </c>
       <c r="X215">
-        <v>377798</v>
+        <v>385035</v>
       </c>
       <c r="Y215">
         <v>32</v>
@@ -23817,13 +23817,13 @@
         <v>30</v>
       </c>
       <c r="V216">
-        <v>332094</v>
+        <v>332035</v>
       </c>
       <c r="W216">
-        <v>308847</v>
+        <v>305472</v>
       </c>
       <c r="X216">
-        <v>348699</v>
+        <v>355277</v>
       </c>
       <c r="Y216">
         <v>32</v>
@@ -24045,13 +24045,13 @@
         <v>30</v>
       </c>
       <c r="V219">
-        <v>358214</v>
+        <v>359010</v>
       </c>
       <c r="W219">
-        <v>329557</v>
+        <v>330289</v>
       </c>
       <c r="X219">
-        <v>386871</v>
+        <v>387731</v>
       </c>
       <c r="Y219">
         <v>32</v>
@@ -24119,13 +24119,13 @@
         <v>30</v>
       </c>
       <c r="V220">
-        <v>297726</v>
+        <v>297965</v>
       </c>
       <c r="W220">
-        <v>259022</v>
+        <v>262209</v>
       </c>
       <c r="X220">
-        <v>321544</v>
+        <v>321802</v>
       </c>
       <c r="Y220">
         <v>13</v>
@@ -24193,13 +24193,13 @@
         <v>30</v>
       </c>
       <c r="V221">
-        <v>480763</v>
+        <v>479427</v>
       </c>
       <c r="W221">
-        <v>456725</v>
+        <v>455456</v>
       </c>
       <c r="X221">
-        <v>509609</v>
+        <v>508193</v>
       </c>
       <c r="Y221">
         <v>32</v>
@@ -24347,13 +24347,13 @@
         <v>30</v>
       </c>
       <c r="V223">
-        <v>194177</v>
+        <v>194355</v>
       </c>
       <c r="W223">
-        <v>184468</v>
+        <v>184637</v>
       </c>
       <c r="X223">
-        <v>205828</v>
+        <v>206016</v>
       </c>
       <c r="Y223">
         <v>32</v>
@@ -24421,13 +24421,13 @@
         <v>30</v>
       </c>
       <c r="V224">
-        <v>506989</v>
+        <v>506765</v>
       </c>
       <c r="W224">
-        <v>481640</v>
+        <v>481427</v>
       </c>
       <c r="X224">
-        <v>532338</v>
+        <v>532103</v>
       </c>
       <c r="Y224">
         <v>32</v>
@@ -24877,13 +24877,13 @@
         <v>30</v>
       </c>
       <c r="V230">
-        <v>672578</v>
+        <v>671828</v>
       </c>
       <c r="W230">
-        <v>638949</v>
+        <v>631518</v>
       </c>
       <c r="X230">
-        <v>712933</v>
+        <v>712138</v>
       </c>
       <c r="Y230">
         <v>32</v>
@@ -24957,13 +24957,13 @@
         <v>30</v>
       </c>
       <c r="V231">
-        <v>505698</v>
+        <v>504792</v>
       </c>
       <c r="W231">
-        <v>470299</v>
+        <v>469457</v>
       </c>
       <c r="X231">
-        <v>546154</v>
+        <v>545175</v>
       </c>
       <c r="Y231">
         <v>32</v>
@@ -25037,13 +25037,13 @@
         <v>30</v>
       </c>
       <c r="V232">
-        <v>736663</v>
+        <v>734638</v>
       </c>
       <c r="W232">
-        <v>677730</v>
+        <v>683213</v>
       </c>
       <c r="X232">
-        <v>773496</v>
+        <v>771370</v>
       </c>
       <c r="Y232">
         <v>32</v>
@@ -25111,13 +25111,13 @@
         <v>30</v>
       </c>
       <c r="V233">
-        <v>568521</v>
+        <v>568658</v>
       </c>
       <c r="W233">
-        <v>517354</v>
+        <v>517479</v>
       </c>
       <c r="X233">
-        <v>608317</v>
+        <v>602777</v>
       </c>
       <c r="Y233">
         <v>32</v>
@@ -25191,13 +25191,13 @@
         <v>30</v>
       </c>
       <c r="V234">
-        <v>531204</v>
+        <v>530685</v>
       </c>
       <c r="W234">
-        <v>488708</v>
+        <v>493537</v>
       </c>
       <c r="X234">
-        <v>563076</v>
+        <v>557219</v>
       </c>
       <c r="Y234">
         <v>17</v>
@@ -25271,13 +25271,13 @@
         <v>30</v>
       </c>
       <c r="V235">
-        <v>314424</v>
+        <v>315254</v>
       </c>
       <c r="W235">
-        <v>289270</v>
+        <v>286881</v>
       </c>
       <c r="X235">
-        <v>342722</v>
+        <v>340474</v>
       </c>
       <c r="Y235">
         <v>13</v>
@@ -25431,13 +25431,13 @@
         <v>30</v>
       </c>
       <c r="V237">
-        <v>604962</v>
+        <v>605406</v>
       </c>
       <c r="W237">
-        <v>544466</v>
+        <v>550919</v>
       </c>
       <c r="X237">
-        <v>671508</v>
+        <v>653838</v>
       </c>
       <c r="Y237">
         <v>41</v>
@@ -25591,13 +25591,13 @@
         <v>30</v>
       </c>
       <c r="V239">
-        <v>479901</v>
+        <v>479903</v>
       </c>
       <c r="W239">
-        <v>455906</v>
+        <v>455908</v>
       </c>
       <c r="X239">
-        <v>503896</v>
+        <v>503898</v>
       </c>
       <c r="Y239">
         <v>9</v>
@@ -25671,13 +25671,13 @@
         <v>30</v>
       </c>
       <c r="V240">
-        <v>329479</v>
+        <v>329211</v>
       </c>
       <c r="W240">
-        <v>303121</v>
+        <v>299582</v>
       </c>
       <c r="X240">
-        <v>359132</v>
+        <v>355548</v>
       </c>
       <c r="Y240">
         <v>20</v>
@@ -25751,13 +25751,13 @@
         <v>30</v>
       </c>
       <c r="V241">
-        <v>630285</v>
+        <v>628945</v>
       </c>
       <c r="W241">
-        <v>598771</v>
+        <v>584919</v>
       </c>
       <c r="X241">
-        <v>661799</v>
+        <v>660392</v>
       </c>
       <c r="Y241">
         <v>32</v>
@@ -25831,13 +25831,13 @@
         <v>30</v>
       </c>
       <c r="V242">
-        <v>453020</v>
+        <v>453218</v>
       </c>
       <c r="W242">
-        <v>430369</v>
+        <v>430557</v>
       </c>
       <c r="X242">
-        <v>480201</v>
+        <v>475879</v>
       </c>
       <c r="Y242">
         <v>32</v>
@@ -25911,13 +25911,13 @@
         <v>30</v>
       </c>
       <c r="V243">
-        <v>426460</v>
+        <v>425656</v>
       </c>
       <c r="W243">
-        <v>405137</v>
+        <v>404373</v>
       </c>
       <c r="X243">
-        <v>452048</v>
+        <v>446939</v>
       </c>
       <c r="Y243">
         <v>32</v>
@@ -26071,13 +26071,13 @@
         <v>30</v>
       </c>
       <c r="V245">
-        <v>878533</v>
+        <v>878492</v>
       </c>
       <c r="W245">
-        <v>808250</v>
+        <v>816998</v>
       </c>
       <c r="X245">
-        <v>922460</v>
+        <v>931202</v>
       </c>
       <c r="Y245">
         <v>31</v>
@@ -26151,13 +26151,13 @@
         <v>30</v>
       </c>
       <c r="V246">
-        <v>472430</v>
+        <v>473091</v>
       </c>
       <c r="W246">
-        <v>434636</v>
+        <v>435244</v>
       </c>
       <c r="X246">
-        <v>505500</v>
+        <v>506207</v>
       </c>
       <c r="Y246">
         <v>36</v>
@@ -26231,13 +26231,13 @@
         <v>30</v>
       </c>
       <c r="V247">
-        <v>419122</v>
+        <v>418707</v>
       </c>
       <c r="W247">
-        <v>389783</v>
+        <v>389398</v>
       </c>
       <c r="X247">
-        <v>452652</v>
+        <v>448016</v>
       </c>
       <c r="Y247">
         <v>36</v>
@@ -26311,13 +26311,13 @@
         <v>30</v>
       </c>
       <c r="V248">
-        <v>324977</v>
+        <v>325152</v>
       </c>
       <c r="W248">
-        <v>308728</v>
+        <v>308894</v>
       </c>
       <c r="X248">
-        <v>341226</v>
+        <v>344661</v>
       </c>
       <c r="Y248">
         <v>32</v>
@@ -26391,13 +26391,13 @@
         <v>30</v>
       </c>
       <c r="V249">
-        <v>1159471</v>
+        <v>1161462</v>
       </c>
       <c r="W249">
-        <v>1066713</v>
+        <v>1056930</v>
       </c>
       <c r="X249">
-        <v>1229039</v>
+        <v>1231150</v>
       </c>
       <c r="Y249">
         <v>32</v>
@@ -26471,13 +26471,13 @@
         <v>30</v>
       </c>
       <c r="V250">
-        <v>511467</v>
+        <v>511559</v>
       </c>
       <c r="W250">
-        <v>485894</v>
+        <v>485981</v>
       </c>
       <c r="X250">
-        <v>537040</v>
+        <v>542253</v>
       </c>
       <c r="Y250">
         <v>32</v>
@@ -26551,13 +26551,13 @@
         <v>30</v>
       </c>
       <c r="V251">
-        <v>497803</v>
+        <v>498069</v>
       </c>
       <c r="W251">
-        <v>472913</v>
+        <v>473166</v>
       </c>
       <c r="X251">
-        <v>522693</v>
+        <v>527953</v>
       </c>
       <c r="Y251">
         <v>41</v>
@@ -26711,13 +26711,13 @@
         <v>30</v>
       </c>
       <c r="V253">
-        <v>355448</v>
+        <v>355849</v>
       </c>
       <c r="W253">
-        <v>337676</v>
+        <v>338057</v>
       </c>
       <c r="X253">
-        <v>373220</v>
+        <v>373641</v>
       </c>
       <c r="Y253">
         <v>29</v>
@@ -26791,13 +26791,13 @@
         <v>30</v>
       </c>
       <c r="V254">
-        <v>1052842</v>
+        <v>1053650</v>
       </c>
       <c r="W254">
-        <v>905444</v>
+        <v>916675</v>
       </c>
       <c r="X254">
-        <v>1179183</v>
+        <v>1190625</v>
       </c>
       <c r="Y254">
         <v>4</v>
@@ -27031,13 +27031,13 @@
         <v>30</v>
       </c>
       <c r="V257">
-        <v>245241</v>
+        <v>245158</v>
       </c>
       <c r="W257">
-        <v>228074</v>
+        <v>225545</v>
       </c>
       <c r="X257">
-        <v>259955</v>
+        <v>259867</v>
       </c>
       <c r="Y257">
         <v>43</v>
@@ -27185,13 +27185,13 @@
         <v>30</v>
       </c>
       <c r="V259">
-        <v>760418</v>
+        <v>760705</v>
       </c>
       <c r="W259">
-        <v>722397</v>
+        <v>722670</v>
       </c>
       <c r="X259">
-        <v>798439</v>
+        <v>798740</v>
       </c>
       <c r="Y259">
         <v>20</v>
@@ -27265,13 +27265,13 @@
         <v>30</v>
       </c>
       <c r="V260">
-        <v>427659</v>
+        <v>426797</v>
       </c>
       <c r="W260">
-        <v>389170</v>
+        <v>388385</v>
       </c>
       <c r="X260">
-        <v>457595</v>
+        <v>460941</v>
       </c>
       <c r="Y260">
         <v>32</v>
@@ -27339,13 +27339,13 @@
         <v>30</v>
       </c>
       <c r="V261">
-        <v>327053</v>
+        <v>326976</v>
       </c>
       <c r="W261">
-        <v>297618</v>
+        <v>297548</v>
       </c>
       <c r="X261">
-        <v>356488</v>
+        <v>356404</v>
       </c>
       <c r="Y261">
         <v>32</v>
@@ -27487,13 +27487,13 @@
         <v>30</v>
       </c>
       <c r="V263">
-        <v>475211</v>
+        <v>475588</v>
       </c>
       <c r="W263">
-        <v>446698</v>
+        <v>447053</v>
       </c>
       <c r="X263">
-        <v>513228</v>
+        <v>508879</v>
       </c>
       <c r="Y263">
         <v>12</v>
@@ -27561,13 +27561,13 @@
         <v>30</v>
       </c>
       <c r="V264">
-        <v>403237</v>
+        <v>402566</v>
       </c>
       <c r="W264">
-        <v>370978</v>
+        <v>374386</v>
       </c>
       <c r="X264">
-        <v>431464</v>
+        <v>430746</v>
       </c>
       <c r="Y264">
         <v>32</v>
@@ -27635,13 +27635,13 @@
         <v>30</v>
       </c>
       <c r="V265">
-        <v>403237</v>
+        <v>402566</v>
       </c>
       <c r="W265">
-        <v>370978</v>
+        <v>374386</v>
       </c>
       <c r="X265">
-        <v>431464</v>
+        <v>430746</v>
       </c>
       <c r="Y265">
         <v>32</v>
@@ -27709,13 +27709,13 @@
         <v>30</v>
       </c>
       <c r="V266">
-        <v>758961</v>
+        <v>758175</v>
       </c>
       <c r="W266">
-        <v>705834</v>
+        <v>705103</v>
       </c>
       <c r="X266">
-        <v>827267</v>
+        <v>826411</v>
       </c>
       <c r="Y266">
         <v>4</v>
@@ -27857,13 +27857,13 @@
         <v>30</v>
       </c>
       <c r="V268">
-        <v>850145</v>
+        <v>852186</v>
       </c>
       <c r="W268">
-        <v>799136</v>
+        <v>792533</v>
       </c>
       <c r="X268">
-        <v>909655</v>
+        <v>894795</v>
       </c>
       <c r="Y268">
         <v>32</v>
@@ -27931,13 +27931,13 @@
         <v>30</v>
       </c>
       <c r="V269">
-        <v>850145</v>
+        <v>852186</v>
       </c>
       <c r="W269">
-        <v>799136</v>
+        <v>792533</v>
       </c>
       <c r="X269">
-        <v>909655</v>
+        <v>894795</v>
       </c>
       <c r="Y269">
         <v>32</v>
@@ -28005,13 +28005,13 @@
         <v>30</v>
       </c>
       <c r="V270">
-        <v>449659</v>
+        <v>449682</v>
       </c>
       <c r="W270">
-        <v>427176</v>
+        <v>427198</v>
       </c>
       <c r="X270">
-        <v>476639</v>
+        <v>476663</v>
       </c>
       <c r="Y270">
         <v>32</v>
@@ -28079,13 +28079,13 @@
         <v>30</v>
       </c>
       <c r="V271">
-        <v>593410</v>
+        <v>592993</v>
       </c>
       <c r="W271">
-        <v>557805</v>
+        <v>551483</v>
       </c>
       <c r="X271">
-        <v>623080</v>
+        <v>622643</v>
       </c>
       <c r="Y271">
         <v>32</v>
@@ -28153,13 +28153,13 @@
         <v>30</v>
       </c>
       <c r="V272">
-        <v>431729</v>
+        <v>432018</v>
       </c>
       <c r="W272">
-        <v>410143</v>
+        <v>406097</v>
       </c>
       <c r="X272">
-        <v>457633</v>
+        <v>466579</v>
       </c>
       <c r="Y272">
         <v>31</v>
@@ -28227,13 +28227,13 @@
         <v>30</v>
       </c>
       <c r="V273">
-        <v>303708</v>
+        <v>303919</v>
       </c>
       <c r="W273">
-        <v>282448</v>
+        <v>285684</v>
       </c>
       <c r="X273">
-        <v>324968</v>
+        <v>325193</v>
       </c>
       <c r="Y273">
         <v>7</v>
@@ -28301,13 +28301,13 @@
         <v>30</v>
       </c>
       <c r="V274">
-        <v>330799</v>
+        <v>330849</v>
       </c>
       <c r="W274">
-        <v>314259</v>
+        <v>310998</v>
       </c>
       <c r="X274">
-        <v>357263</v>
+        <v>357317</v>
       </c>
       <c r="Y274">
         <v>20</v>
@@ -28381,13 +28381,13 @@
         <v>30</v>
       </c>
       <c r="V275">
-        <v>585130</v>
+        <v>584862</v>
       </c>
       <c r="W275">
-        <v>550022</v>
+        <v>549770</v>
       </c>
       <c r="X275">
-        <v>614386</v>
+        <v>614105</v>
       </c>
       <c r="Y275">
         <v>43</v>
@@ -28455,13 +28455,13 @@
         <v>30</v>
       </c>
       <c r="V276">
-        <v>567524</v>
+        <v>566729</v>
       </c>
       <c r="W276">
-        <v>539148</v>
+        <v>538393</v>
       </c>
       <c r="X276">
-        <v>601575</v>
+        <v>595065</v>
       </c>
       <c r="Y276">
         <v>31</v>
@@ -28603,13 +28603,13 @@
         <v>30</v>
       </c>
       <c r="V278">
-        <v>408124</v>
+        <v>407086</v>
       </c>
       <c r="W278">
-        <v>375474</v>
+        <v>378590</v>
       </c>
       <c r="X278">
-        <v>436693</v>
+        <v>435582</v>
       </c>
       <c r="Y278">
         <v>31</v>
@@ -28683,13 +28683,13 @@
         <v>30</v>
       </c>
       <c r="V279">
-        <v>515021</v>
+        <v>514672</v>
       </c>
       <c r="W279">
-        <v>489270</v>
+        <v>488938</v>
       </c>
       <c r="X279">
-        <v>545922</v>
+        <v>545552</v>
       </c>
       <c r="Y279">
         <v>32</v>
@@ -28757,13 +28757,13 @@
         <v>30</v>
       </c>
       <c r="V280">
-        <v>703618</v>
+        <v>703814</v>
       </c>
       <c r="W280">
-        <v>668437</v>
+        <v>661585</v>
       </c>
       <c r="X280">
-        <v>738799</v>
+        <v>746043</v>
       </c>
       <c r="Y280">
         <v>4</v>
@@ -28985,13 +28985,13 @@
         <v>30</v>
       </c>
       <c r="V283">
-        <v>309147</v>
+        <v>309296</v>
       </c>
       <c r="W283">
-        <v>290598</v>
+        <v>287645</v>
       </c>
       <c r="X283">
-        <v>327696</v>
+        <v>327854</v>
       </c>
       <c r="Y283">
         <v>32</v>
@@ -29059,13 +29059,13 @@
         <v>30</v>
       </c>
       <c r="V284">
-        <v>399558</v>
+        <v>399398</v>
       </c>
       <c r="W284">
-        <v>371589</v>
+        <v>379428</v>
       </c>
       <c r="X284">
-        <v>427527</v>
+        <v>427356</v>
       </c>
       <c r="Y284">
         <v>32</v>
@@ -29133,13 +29133,13 @@
         <v>30</v>
       </c>
       <c r="V285">
-        <v>465967</v>
+        <v>466095</v>
       </c>
       <c r="W285">
-        <v>442669</v>
+        <v>442790</v>
       </c>
       <c r="X285">
-        <v>489265</v>
+        <v>489400</v>
       </c>
       <c r="Y285">
         <v>32</v>
@@ -29207,13 +29207,13 @@
         <v>30</v>
       </c>
       <c r="V286">
-        <v>376430</v>
+        <v>377655</v>
       </c>
       <c r="W286">
-        <v>346316</v>
+        <v>339890</v>
       </c>
       <c r="X286">
-        <v>402780</v>
+        <v>411644</v>
       </c>
       <c r="Y286">
         <v>13</v>
@@ -29287,13 +29287,13 @@
         <v>30</v>
       </c>
       <c r="V287">
-        <v>716556</v>
+        <v>715870</v>
       </c>
       <c r="W287">
-        <v>680728</v>
+        <v>680077</v>
       </c>
       <c r="X287">
-        <v>752384</v>
+        <v>751663</v>
       </c>
       <c r="Y287">
         <v>32</v>
@@ -29367,13 +29367,13 @@
         <v>30</v>
       </c>
       <c r="V288">
-        <v>1201504</v>
+        <v>1201848</v>
       </c>
       <c r="W288">
-        <v>1081354</v>
+        <v>1081663</v>
       </c>
       <c r="X288">
-        <v>1321654</v>
+        <v>1297996</v>
       </c>
       <c r="Y288">
         <v>32</v>
@@ -29441,13 +29441,13 @@
         <v>30</v>
       </c>
       <c r="V289">
-        <v>340304</v>
+        <v>341212</v>
       </c>
       <c r="W289">
-        <v>316483</v>
+        <v>317327</v>
       </c>
       <c r="X289">
-        <v>364125</v>
+        <v>365097</v>
       </c>
       <c r="Y289">
         <v>32</v>
@@ -29515,13 +29515,13 @@
         <v>30</v>
       </c>
       <c r="V290">
-        <v>820657</v>
+        <v>818831</v>
       </c>
       <c r="W290">
-        <v>763211</v>
+        <v>769701</v>
       </c>
       <c r="X290">
-        <v>878103</v>
+        <v>876149</v>
       </c>
       <c r="Y290">
         <v>32</v>
@@ -29589,13 +29589,13 @@
         <v>30</v>
       </c>
       <c r="V291">
-        <v>248019</v>
+        <v>247991</v>
       </c>
       <c r="W291">
-        <v>235618</v>
+        <v>235591</v>
       </c>
       <c r="X291">
-        <v>260420</v>
+        <v>260391</v>
       </c>
       <c r="Y291">
         <v>32</v>
@@ -29663,13 +29663,13 @@
         <v>30</v>
       </c>
       <c r="V292">
-        <v>843539</v>
+        <v>843684</v>
       </c>
       <c r="W292">
-        <v>792927</v>
+        <v>801500</v>
       </c>
       <c r="X292">
-        <v>902587</v>
+        <v>902742</v>
       </c>
       <c r="Y292">
         <v>32</v>
@@ -29743,13 +29743,13 @@
         <v>30</v>
       </c>
       <c r="V293">
-        <v>375902</v>
+        <v>377137</v>
       </c>
       <c r="W293">
-        <v>338312</v>
+        <v>343195</v>
       </c>
       <c r="X293">
-        <v>417251</v>
+        <v>414851</v>
       </c>
       <c r="Y293">
         <v>2</v>
@@ -29823,13 +29823,13 @@
         <v>30</v>
       </c>
       <c r="V294">
-        <v>414081</v>
+        <v>413885</v>
       </c>
       <c r="W294">
-        <v>393377</v>
+        <v>384913</v>
       </c>
       <c r="X294">
-        <v>434785</v>
+        <v>438718</v>
       </c>
       <c r="Y294">
         <v>9</v>
@@ -29903,13 +29903,13 @@
         <v>30</v>
       </c>
       <c r="V295">
-        <v>805123</v>
+        <v>805282</v>
       </c>
       <c r="W295">
-        <v>756816</v>
+        <v>756965</v>
       </c>
       <c r="X295">
-        <v>853430</v>
+        <v>861652</v>
       </c>
       <c r="Y295">
         <v>38</v>
@@ -29983,13 +29983,13 @@
         <v>30</v>
       </c>
       <c r="V296">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W296">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X296">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y296">
         <v>22</v>
@@ -30131,13 +30131,13 @@
         <v>30</v>
       </c>
       <c r="V298">
-        <v>352333</v>
+        <v>352755</v>
       </c>
       <c r="W298">
-        <v>334716</v>
+        <v>335117</v>
       </c>
       <c r="X298">
-        <v>380520</v>
+        <v>380975</v>
       </c>
       <c r="Y298">
         <v>32</v>
@@ -30279,13 +30279,13 @@
         <v>30</v>
       </c>
       <c r="V300">
-        <v>872944</v>
+        <v>874023</v>
       </c>
       <c r="W300">
-        <v>811838</v>
+        <v>812841</v>
       </c>
       <c r="X300">
-        <v>960238</v>
+        <v>935205</v>
       </c>
       <c r="Y300">
         <v>5</v>
@@ -30353,13 +30353,13 @@
         <v>30</v>
       </c>
       <c r="V301">
-        <v>231577</v>
+        <v>231276</v>
       </c>
       <c r="W301">
-        <v>213051</v>
+        <v>212774</v>
       </c>
       <c r="X301">
-        <v>250103</v>
+        <v>249778</v>
       </c>
       <c r="Y301">
         <v>33</v>
@@ -30427,13 +30427,13 @@
         <v>30</v>
       </c>
       <c r="V302">
-        <v>375409</v>
+        <v>374869</v>
       </c>
       <c r="W302">
-        <v>356639</v>
+        <v>348628</v>
       </c>
       <c r="X302">
-        <v>394179</v>
+        <v>393612</v>
       </c>
       <c r="Y302">
         <v>32</v>
@@ -30501,13 +30501,13 @@
         <v>30</v>
       </c>
       <c r="V303">
-        <v>649104</v>
+        <v>649806</v>
       </c>
       <c r="W303">
-        <v>584194</v>
+        <v>584825</v>
       </c>
       <c r="X303">
-        <v>726996</v>
+        <v>740779</v>
       </c>
       <c r="Y303">
         <v>25</v>
@@ -30649,13 +30649,13 @@
         <v>30</v>
       </c>
       <c r="V305">
-        <v>381094</v>
+        <v>380994</v>
       </c>
       <c r="W305">
-        <v>362039</v>
+        <v>361944</v>
       </c>
       <c r="X305">
-        <v>400149</v>
+        <v>400044</v>
       </c>
       <c r="Y305">
         <v>32</v>
@@ -30723,13 +30723,13 @@
         <v>30</v>
       </c>
       <c r="V306">
-        <v>814632</v>
+        <v>813947</v>
       </c>
       <c r="W306">
-        <v>773900</v>
+        <v>773250</v>
       </c>
       <c r="X306">
-        <v>863510</v>
+        <v>854644</v>
       </c>
       <c r="Y306">
         <v>32</v>
@@ -30803,13 +30803,13 @@
         <v>30</v>
       </c>
       <c r="V307">
-        <v>355443</v>
+        <v>354987</v>
       </c>
       <c r="W307">
-        <v>334116</v>
+        <v>333688</v>
       </c>
       <c r="X307">
-        <v>373215</v>
+        <v>372736</v>
       </c>
       <c r="Y307">
         <v>2</v>
@@ -30877,13 +30877,13 @@
         <v>30</v>
       </c>
       <c r="V308">
-        <v>260394</v>
+        <v>260683</v>
       </c>
       <c r="W308">
-        <v>234355</v>
+        <v>234615</v>
       </c>
       <c r="X308">
-        <v>289037</v>
+        <v>289358</v>
       </c>
       <c r="Y308">
         <v>32</v>
@@ -30957,13 +30957,13 @@
         <v>30</v>
       </c>
       <c r="V309">
-        <v>322973</v>
+        <v>323459</v>
       </c>
       <c r="W309">
-        <v>303595</v>
+        <v>304051</v>
       </c>
       <c r="X309">
-        <v>342351</v>
+        <v>346101</v>
       </c>
       <c r="Y309">
         <v>32</v>
@@ -31185,13 +31185,13 @@
         <v>30</v>
       </c>
       <c r="V312">
-        <v>539874</v>
+        <v>538899</v>
       </c>
       <c r="W312">
-        <v>502083</v>
+        <v>501176</v>
       </c>
       <c r="X312">
-        <v>583064</v>
+        <v>582011</v>
       </c>
       <c r="Y312">
         <v>32</v>
@@ -31345,13 +31345,13 @@
         <v>30</v>
       </c>
       <c r="V314">
-        <v>798308</v>
+        <v>797898</v>
       </c>
       <c r="W314">
-        <v>726460</v>
+        <v>726087</v>
       </c>
       <c r="X314">
-        <v>870156</v>
+        <v>869709</v>
       </c>
       <c r="Y314">
         <v>32</v>
@@ -31499,13 +31499,13 @@
         <v>30</v>
       </c>
       <c r="V316">
-        <v>865938</v>
+        <v>866282</v>
       </c>
       <c r="W316">
-        <v>805322</v>
+        <v>822968</v>
       </c>
       <c r="X316">
-        <v>909235</v>
+        <v>909596</v>
       </c>
       <c r="Y316">
         <v>32</v>
@@ -32115,13 +32115,13 @@
         <v>30</v>
       </c>
       <c r="V324">
-        <v>595456</v>
+        <v>598860</v>
       </c>
       <c r="W324">
-        <v>535910</v>
+        <v>538974</v>
       </c>
       <c r="X324">
-        <v>666911</v>
+        <v>670723</v>
       </c>
       <c r="Y324">
         <v>26</v>
@@ -32189,13 +32189,13 @@
         <v>30</v>
       </c>
       <c r="V325">
-        <v>432209</v>
+        <v>432494</v>
       </c>
       <c r="W325">
-        <v>410599</v>
+        <v>410869</v>
       </c>
       <c r="X325">
-        <v>453819</v>
+        <v>454119</v>
       </c>
       <c r="Y325">
         <v>9</v>
@@ -32343,13 +32343,13 @@
         <v>30</v>
       </c>
       <c r="V327">
-        <v>1382003</v>
+        <v>1382288</v>
       </c>
       <c r="W327">
-        <v>1229983</v>
+        <v>1230236</v>
       </c>
       <c r="X327">
-        <v>1547843</v>
+        <v>1548163</v>
       </c>
       <c r="Y327">
         <v>18</v>
@@ -32423,13 +32423,13 @@
         <v>30</v>
       </c>
       <c r="V328">
-        <v>418229</v>
+        <v>418780</v>
       </c>
       <c r="W328">
-        <v>384771</v>
+        <v>389465</v>
       </c>
       <c r="X328">
-        <v>451687</v>
+        <v>448095</v>
       </c>
       <c r="Y328">
         <v>10</v>
@@ -32497,13 +32497,13 @@
         <v>30</v>
       </c>
       <c r="V329">
-        <v>798058</v>
+        <v>795982</v>
       </c>
       <c r="W329">
-        <v>726233</v>
+        <v>724344</v>
       </c>
       <c r="X329">
-        <v>869883</v>
+        <v>867620</v>
       </c>
       <c r="Y329">
         <v>25</v>
@@ -32645,13 +32645,13 @@
         <v>30</v>
       </c>
       <c r="V331">
-        <v>614377</v>
+        <v>615263</v>
       </c>
       <c r="W331">
-        <v>571371</v>
+        <v>572195</v>
       </c>
       <c r="X331">
-        <v>651240</v>
+        <v>646026</v>
       </c>
       <c r="Y331">
         <v>28</v>
@@ -32873,13 +32873,13 @@
         <v>30</v>
       </c>
       <c r="V334">
-        <v>578737</v>
+        <v>577583</v>
       </c>
       <c r="W334">
-        <v>538225</v>
+        <v>542928</v>
       </c>
       <c r="X334">
-        <v>630823</v>
+        <v>623790</v>
       </c>
       <c r="Y334">
         <v>25</v>
@@ -33027,13 +33027,13 @@
         <v>30</v>
       </c>
       <c r="V336">
-        <v>516619</v>
+        <v>515025</v>
       </c>
       <c r="W336">
-        <v>485622</v>
+        <v>484123</v>
       </c>
       <c r="X336">
-        <v>547616</v>
+        <v>551077</v>
       </c>
       <c r="Y336">
         <v>2</v>
@@ -33101,13 +33101,13 @@
         <v>30</v>
       </c>
       <c r="V337">
-        <v>508501</v>
+        <v>508497</v>
       </c>
       <c r="W337">
-        <v>483076</v>
+        <v>483072</v>
       </c>
       <c r="X337">
-        <v>533926</v>
+        <v>539007</v>
       </c>
       <c r="Y337">
         <v>43</v>
@@ -33175,13 +33175,13 @@
         <v>30</v>
       </c>
       <c r="V338">
-        <v>420418</v>
+        <v>420734</v>
       </c>
       <c r="W338">
-        <v>399397</v>
+        <v>395490</v>
       </c>
       <c r="X338">
-        <v>441439</v>
+        <v>441771</v>
       </c>
       <c r="Y338">
         <v>32</v>
@@ -33255,13 +33255,13 @@
         <v>30</v>
       </c>
       <c r="V339">
-        <v>399520</v>
+        <v>399773</v>
       </c>
       <c r="W339">
-        <v>379544</v>
+        <v>379784</v>
       </c>
       <c r="X339">
-        <v>419496</v>
+        <v>423759</v>
       </c>
       <c r="Y339">
         <v>34</v>
@@ -33409,13 +33409,13 @@
         <v>30</v>
       </c>
       <c r="V341">
-        <v>768519</v>
+        <v>768470</v>
       </c>
       <c r="W341">
-        <v>699352</v>
+        <v>699308</v>
       </c>
       <c r="X341">
-        <v>814630</v>
+        <v>814578</v>
       </c>
       <c r="Y341">
         <v>25</v>
@@ -33489,13 +33489,13 @@
         <v>30</v>
       </c>
       <c r="V342">
-        <v>710657</v>
+        <v>711270</v>
       </c>
       <c r="W342">
-        <v>653804</v>
+        <v>661481</v>
       </c>
       <c r="X342">
-        <v>774616</v>
+        <v>775284</v>
       </c>
       <c r="Y342">
         <v>18</v>
@@ -33643,13 +33643,13 @@
         <v>30</v>
       </c>
       <c r="V344">
-        <v>513869</v>
+        <v>512905</v>
       </c>
       <c r="W344">
-        <v>488176</v>
+        <v>482131</v>
       </c>
       <c r="X344">
-        <v>539562</v>
+        <v>538550</v>
       </c>
       <c r="Y344">
         <v>32</v>
@@ -33723,13 +33723,13 @@
         <v>30</v>
       </c>
       <c r="V345">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W345">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X345">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y345">
         <v>22</v>
@@ -33803,13 +33803,13 @@
         <v>30</v>
       </c>
       <c r="V346">
-        <v>589724</v>
+        <v>588336</v>
       </c>
       <c r="W346">
-        <v>560238</v>
+        <v>558919</v>
       </c>
       <c r="X346">
-        <v>619210</v>
+        <v>623636</v>
       </c>
       <c r="Y346">
         <v>15</v>
@@ -33963,13 +33963,13 @@
         <v>30</v>
       </c>
       <c r="V348">
-        <v>560551</v>
+        <v>559757</v>
       </c>
       <c r="W348">
-        <v>532523</v>
+        <v>531769</v>
       </c>
       <c r="X348">
-        <v>588579</v>
+        <v>587745</v>
       </c>
       <c r="Y348">
         <v>32</v>
@@ -34037,13 +34037,13 @@
         <v>30</v>
       </c>
       <c r="V349">
-        <v>346604</v>
+        <v>346878</v>
       </c>
       <c r="W349">
-        <v>315410</v>
+        <v>319128</v>
       </c>
       <c r="X349">
-        <v>377798</v>
+        <v>385035</v>
       </c>
       <c r="Y349">
         <v>32</v>
@@ -34117,13 +34117,13 @@
         <v>30</v>
       </c>
       <c r="V350">
-        <v>888860</v>
+        <v>891290</v>
       </c>
       <c r="W350">
-        <v>826640</v>
+        <v>828900</v>
       </c>
       <c r="X350">
-        <v>959969</v>
+        <v>953680</v>
       </c>
       <c r="Y350">
         <v>33</v>
@@ -34191,13 +34191,13 @@
         <v>30</v>
       </c>
       <c r="V351">
-        <v>710956</v>
+        <v>710442</v>
       </c>
       <c r="W351">
-        <v>675408</v>
+        <v>674920</v>
       </c>
       <c r="X351">
-        <v>746504</v>
+        <v>745964</v>
       </c>
       <c r="Y351">
         <v>32</v>
@@ -34265,13 +34265,13 @@
         <v>30</v>
       </c>
       <c r="V352">
-        <v>542066</v>
+        <v>541581</v>
       </c>
       <c r="W352">
-        <v>509542</v>
+        <v>509086</v>
       </c>
       <c r="X352">
-        <v>569169</v>
+        <v>568660</v>
       </c>
       <c r="Y352">
         <v>13</v>
@@ -34499,13 +34499,13 @@
         <v>30</v>
       </c>
       <c r="V355">
-        <v>294543</v>
+        <v>294509</v>
       </c>
       <c r="W355">
-        <v>268034</v>
+        <v>268003</v>
       </c>
       <c r="X355">
-        <v>323997</v>
+        <v>323960</v>
       </c>
       <c r="Y355">
         <v>32</v>
@@ -34647,13 +34647,13 @@
         <v>30</v>
       </c>
       <c r="V357">
-        <v>586607</v>
+        <v>585845</v>
       </c>
       <c r="W357">
-        <v>545545</v>
+        <v>538977</v>
       </c>
       <c r="X357">
-        <v>621803</v>
+        <v>620996</v>
       </c>
       <c r="Y357">
         <v>20</v>
@@ -34727,13 +34727,13 @@
         <v>30</v>
       </c>
       <c r="V358">
-        <v>429314</v>
+        <v>429178</v>
       </c>
       <c r="W358">
-        <v>407848</v>
+        <v>407719</v>
       </c>
       <c r="X358">
-        <v>455073</v>
+        <v>459220</v>
       </c>
       <c r="Y358">
         <v>32</v>
@@ -34801,13 +34801,13 @@
         <v>30</v>
       </c>
       <c r="V359">
-        <v>819923</v>
+        <v>821055</v>
       </c>
       <c r="W359">
-        <v>754329</v>
+        <v>755371</v>
       </c>
       <c r="X359">
-        <v>885517</v>
+        <v>886739</v>
       </c>
       <c r="Y359">
         <v>41</v>
@@ -34875,13 +34875,13 @@
         <v>30</v>
       </c>
       <c r="V360">
-        <v>400304</v>
+        <v>400477</v>
       </c>
       <c r="W360">
-        <v>372283</v>
+        <v>380453</v>
       </c>
       <c r="X360">
-        <v>424322</v>
+        <v>424506</v>
       </c>
       <c r="Y360">
         <v>32</v>
@@ -34955,13 +34955,13 @@
         <v>30</v>
       </c>
       <c r="V361">
-        <v>666215</v>
+        <v>665298</v>
       </c>
       <c r="W361">
-        <v>612918</v>
+        <v>618727</v>
       </c>
       <c r="X361">
-        <v>732836</v>
+        <v>725175</v>
       </c>
       <c r="Y361">
         <v>2</v>
@@ -35029,13 +35029,13 @@
         <v>30</v>
       </c>
       <c r="V362">
-        <v>417328</v>
+        <v>418295</v>
       </c>
       <c r="W362">
-        <v>375595</v>
+        <v>376466</v>
       </c>
       <c r="X362">
-        <v>467407</v>
+        <v>468490</v>
       </c>
       <c r="Y362">
         <v>15</v>
@@ -35103,13 +35103,13 @@
         <v>30</v>
       </c>
       <c r="V363">
-        <v>430182</v>
+        <v>430239</v>
       </c>
       <c r="W363">
-        <v>408673</v>
+        <v>408727</v>
       </c>
       <c r="X363">
-        <v>455993</v>
+        <v>456053</v>
       </c>
       <c r="Y363">
         <v>32</v>
@@ -35343,13 +35343,13 @@
         <v>30</v>
       </c>
       <c r="V366">
-        <v>626708</v>
+        <v>625415</v>
       </c>
       <c r="W366">
-        <v>595373</v>
+        <v>594144</v>
       </c>
       <c r="X366">
-        <v>658043</v>
+        <v>656686</v>
       </c>
       <c r="Y366">
         <v>32</v>
@@ -35497,13 +35497,13 @@
         <v>30</v>
       </c>
       <c r="V368">
-        <v>951500</v>
+        <v>952505</v>
       </c>
       <c r="W368">
-        <v>865865</v>
+        <v>857255</v>
       </c>
       <c r="X368">
-        <v>1037135</v>
+        <v>1019180</v>
       </c>
       <c r="Y368">
         <v>32</v>
@@ -35651,13 +35651,13 @@
         <v>30</v>
       </c>
       <c r="V370">
-        <v>540587</v>
+        <v>541034</v>
       </c>
       <c r="W370">
-        <v>513558</v>
+        <v>508572</v>
       </c>
       <c r="X370">
-        <v>567616</v>
+        <v>568086</v>
       </c>
       <c r="Y370">
         <v>43</v>
@@ -35805,13 +35805,13 @@
         <v>30</v>
       </c>
       <c r="V372">
-        <v>583473</v>
+        <v>582976</v>
       </c>
       <c r="W372">
-        <v>513456</v>
+        <v>524678</v>
       </c>
       <c r="X372">
-        <v>635986</v>
+        <v>635444</v>
       </c>
       <c r="Y372">
         <v>15</v>
@@ -35885,13 +35885,13 @@
         <v>30</v>
       </c>
       <c r="V373">
-        <v>799356</v>
+        <v>799402</v>
       </c>
       <c r="W373">
-        <v>759388</v>
+        <v>759432</v>
       </c>
       <c r="X373">
-        <v>839324</v>
+        <v>839372</v>
       </c>
       <c r="Y373">
         <v>17</v>
@@ -36258,13 +36258,13 @@
         <v>30</v>
       </c>
       <c r="V378">
-        <v>512204</v>
+        <v>512756</v>
       </c>
       <c r="W378">
-        <v>476350</v>
+        <v>476863</v>
       </c>
       <c r="X378">
-        <v>542936</v>
+        <v>548649</v>
       </c>
       <c r="Y378">
         <v>32</v>
@@ -36412,13 +36412,13 @@
         <v>30</v>
       </c>
       <c r="V380">
-        <v>1090293</v>
+        <v>1088840</v>
       </c>
       <c r="W380">
-        <v>992167</v>
+        <v>990844</v>
       </c>
       <c r="X380">
-        <v>1199322</v>
+        <v>1197724</v>
       </c>
       <c r="Y380">
         <v>43</v>
@@ -36486,13 +36486,13 @@
         <v>30</v>
       </c>
       <c r="V381">
-        <v>361317</v>
+        <v>361719</v>
       </c>
       <c r="W381">
-        <v>343251</v>
+        <v>343633</v>
       </c>
       <c r="X381">
-        <v>379383</v>
+        <v>379805</v>
       </c>
       <c r="Y381">
         <v>36</v>
@@ -36560,13 +36560,13 @@
         <v>30</v>
       </c>
       <c r="V382">
-        <v>687487</v>
+        <v>687706</v>
       </c>
       <c r="W382">
-        <v>646238</v>
+        <v>646444</v>
       </c>
       <c r="X382">
-        <v>728736</v>
+        <v>728968</v>
       </c>
       <c r="Y382">
         <v>2</v>
@@ -36708,13 +36708,13 @@
         <v>30</v>
       </c>
       <c r="V384">
-        <v>406900</v>
+        <v>407003</v>
       </c>
       <c r="W384">
-        <v>386555</v>
+        <v>386653</v>
       </c>
       <c r="X384">
-        <v>435383</v>
+        <v>431423</v>
       </c>
       <c r="Y384">
         <v>14</v>
@@ -36788,13 +36788,13 @@
         <v>30</v>
       </c>
       <c r="V385">
-        <v>1382003</v>
+        <v>1382288</v>
       </c>
       <c r="W385">
-        <v>1229983</v>
+        <v>1230236</v>
       </c>
       <c r="X385">
-        <v>1547843</v>
+        <v>1548163</v>
       </c>
       <c r="Y385">
         <v>18</v>
@@ -36862,13 +36862,13 @@
         <v>30</v>
       </c>
       <c r="V386">
-        <v>454357</v>
+        <v>455420</v>
       </c>
       <c r="W386">
-        <v>408921</v>
+        <v>409878</v>
       </c>
       <c r="X386">
-        <v>508880</v>
+        <v>510070</v>
       </c>
       <c r="Y386">
         <v>16</v>
@@ -37010,13 +37010,13 @@
         <v>30</v>
       </c>
       <c r="V388">
-        <v>651710</v>
+        <v>651904</v>
       </c>
       <c r="W388">
-        <v>612607</v>
+        <v>619309</v>
       </c>
       <c r="X388">
-        <v>684295</v>
+        <v>684499</v>
       </c>
       <c r="Y388">
         <v>20</v>
@@ -37084,13 +37084,13 @@
         <v>30</v>
       </c>
       <c r="V389">
-        <v>542503</v>
+        <v>542102</v>
       </c>
       <c r="W389">
-        <v>509953</v>
+        <v>509576</v>
       </c>
       <c r="X389">
-        <v>580478</v>
+        <v>574628</v>
       </c>
       <c r="Y389">
         <v>20</v>
@@ -37164,13 +37164,13 @@
         <v>30</v>
       </c>
       <c r="V390">
-        <v>878533</v>
+        <v>878492</v>
       </c>
       <c r="W390">
-        <v>808250</v>
+        <v>816998</v>
       </c>
       <c r="X390">
-        <v>922460</v>
+        <v>931202</v>
       </c>
       <c r="Y390">
         <v>31</v>
@@ -37238,13 +37238,13 @@
         <v>30</v>
       </c>
       <c r="V391">
-        <v>737094</v>
+        <v>737678</v>
       </c>
       <c r="W391">
-        <v>692868</v>
+        <v>693417</v>
       </c>
       <c r="X391">
-        <v>773949</v>
+        <v>781939</v>
       </c>
       <c r="Y391">
         <v>31</v>
@@ -37318,13 +37318,13 @@
         <v>30</v>
       </c>
       <c r="V392">
-        <v>355443</v>
+        <v>354987</v>
       </c>
       <c r="W392">
-        <v>334116</v>
+        <v>333688</v>
       </c>
       <c r="X392">
-        <v>373215</v>
+        <v>372736</v>
       </c>
       <c r="Y392">
         <v>2</v>
@@ -37478,13 +37478,13 @@
         <v>30</v>
       </c>
       <c r="V394">
-        <v>815249</v>
+        <v>815912</v>
       </c>
       <c r="W394">
-        <v>717419</v>
+        <v>726162</v>
       </c>
       <c r="X394">
-        <v>888621</v>
+        <v>889344</v>
       </c>
       <c r="Y394">
         <v>25</v>
@@ -37558,13 +37558,13 @@
         <v>30</v>
       </c>
       <c r="V395">
-        <v>537871</v>
+        <v>537272</v>
       </c>
       <c r="W395">
-        <v>500220</v>
+        <v>499663</v>
       </c>
       <c r="X395">
-        <v>575522</v>
+        <v>574881</v>
       </c>
       <c r="Y395">
         <v>20</v>
@@ -37632,13 +37632,13 @@
         <v>30</v>
       </c>
       <c r="V396">
-        <v>490642</v>
+        <v>490729</v>
       </c>
       <c r="W396">
-        <v>461203</v>
+        <v>456378</v>
       </c>
       <c r="X396">
-        <v>515174</v>
+        <v>515265</v>
       </c>
       <c r="Y396">
         <v>33</v>
@@ -37706,13 +37706,13 @@
         <v>30</v>
       </c>
       <c r="V397">
-        <v>120577</v>
+        <v>120756</v>
       </c>
       <c r="W397">
-        <v>114548</v>
+        <v>114718</v>
       </c>
       <c r="X397">
-        <v>126606</v>
+        <v>126794</v>
       </c>
       <c r="Y397">
         <v>43</v>
@@ -37780,13 +37780,13 @@
         <v>30</v>
       </c>
       <c r="V398">
-        <v>538561</v>
+        <v>539133</v>
       </c>
       <c r="W398">
-        <v>500862</v>
+        <v>501394</v>
       </c>
       <c r="X398">
-        <v>570875</v>
+        <v>576872</v>
       </c>
       <c r="Y398">
         <v>17</v>
@@ -37854,13 +37854,13 @@
         <v>30</v>
       </c>
       <c r="V399">
-        <v>577022</v>
+        <v>575304</v>
       </c>
       <c r="W399">
-        <v>525090</v>
+        <v>523527</v>
       </c>
       <c r="X399">
-        <v>617414</v>
+        <v>627081</v>
       </c>
       <c r="Y399">
         <v>42</v>
@@ -38002,13 +38002,13 @@
         <v>30</v>
       </c>
       <c r="V401">
-        <v>780065</v>
+        <v>781017</v>
       </c>
       <c r="W401">
-        <v>725460</v>
+        <v>734156</v>
       </c>
       <c r="X401">
-        <v>819068</v>
+        <v>835688</v>
       </c>
       <c r="Y401">
         <v>43</v>
@@ -38310,13 +38310,13 @@
         <v>30</v>
       </c>
       <c r="V405">
-        <v>485410</v>
+        <v>486177</v>
       </c>
       <c r="W405">
-        <v>446577</v>
+        <v>447283</v>
       </c>
       <c r="X405">
-        <v>548513</v>
+        <v>539656</v>
       </c>
       <c r="Y405">
         <v>43</v>
@@ -38458,13 +38458,13 @@
         <v>30</v>
       </c>
       <c r="V407">
-        <v>619740</v>
+        <v>619990</v>
       </c>
       <c r="W407">
-        <v>588753</v>
+        <v>588991</v>
       </c>
       <c r="X407">
-        <v>650727</v>
+        <v>650989</v>
       </c>
       <c r="Y407">
         <v>17</v>
@@ -38532,13 +38532,13 @@
         <v>30</v>
       </c>
       <c r="V408">
-        <v>500178</v>
+        <v>499750</v>
       </c>
       <c r="W408">
-        <v>465166</v>
+        <v>469765</v>
       </c>
       <c r="X408">
-        <v>525187</v>
+        <v>524737</v>
       </c>
       <c r="Y408">
         <v>2</v>
@@ -38606,13 +38606,13 @@
         <v>30</v>
       </c>
       <c r="V409">
-        <v>430967</v>
+        <v>431607</v>
       </c>
       <c r="W409">
-        <v>392180</v>
+        <v>397078</v>
       </c>
       <c r="X409">
-        <v>452515</v>
+        <v>453187</v>
       </c>
       <c r="Y409">
         <v>34</v>
@@ -38680,13 +38680,13 @@
         <v>30</v>
       </c>
       <c r="V410">
-        <v>0</v>
+        <v>552760</v>
       </c>
       <c r="W410">
-        <v>0</v>
+        <v>519594</v>
       </c>
       <c r="X410">
-        <v>0</v>
+        <v>580398</v>
       </c>
       <c r="Y410">
         <v>43</v>
@@ -38754,13 +38754,13 @@
         <v>30</v>
       </c>
       <c r="V411">
-        <v>453226</v>
+        <v>452616</v>
       </c>
       <c r="W411">
-        <v>412436</v>
+        <v>411881</v>
       </c>
       <c r="X411">
-        <v>498549</v>
+        <v>497878</v>
       </c>
       <c r="Y411">
         <v>28</v>
@@ -38828,13 +38828,13 @@
         <v>30</v>
       </c>
       <c r="V412">
-        <v>649584</v>
+        <v>649561</v>
       </c>
       <c r="W412">
-        <v>604113</v>
+        <v>604092</v>
       </c>
       <c r="X412">
-        <v>708047</v>
+        <v>721013</v>
       </c>
       <c r="Y412">
         <v>25</v>
@@ -38908,13 +38908,13 @@
         <v>30</v>
       </c>
       <c r="V413">
-        <v>495641</v>
+        <v>495614</v>
       </c>
       <c r="W413">
-        <v>455990</v>
+        <v>455965</v>
       </c>
       <c r="X413">
-        <v>530336</v>
+        <v>530307</v>
       </c>
       <c r="Y413">
         <v>17</v>
@@ -38982,13 +38982,13 @@
         <v>30</v>
       </c>
       <c r="V414">
-        <v>0</v>
+        <v>538297</v>
       </c>
       <c r="W414">
-        <v>0</v>
+        <v>500616</v>
       </c>
       <c r="X414">
-        <v>0</v>
+        <v>575978</v>
       </c>
       <c r="Y414">
         <v>31</v>
@@ -39056,13 +39056,13 @@
         <v>30</v>
       </c>
       <c r="V415">
-        <v>0</v>
+        <v>566729</v>
       </c>
       <c r="W415">
-        <v>0</v>
+        <v>538393</v>
       </c>
       <c r="X415">
-        <v>0</v>
+        <v>595065</v>
       </c>
       <c r="Y415">
         <v>31</v>
@@ -39204,13 +39204,13 @@
         <v>30</v>
       </c>
       <c r="V417">
-        <v>160650</v>
+        <v>160976</v>
       </c>
       <c r="W417">
-        <v>152618</v>
+        <v>151317</v>
       </c>
       <c r="X417">
-        <v>168682</v>
+        <v>169025</v>
       </c>
       <c r="Y417">
         <v>41</v>
@@ -39278,13 +39278,13 @@
         <v>30</v>
       </c>
       <c r="V418">
-        <v>538711</v>
+        <v>540981</v>
       </c>
       <c r="W418">
-        <v>501001</v>
+        <v>497703</v>
       </c>
       <c r="X418">
-        <v>587195</v>
+        <v>584259</v>
       </c>
       <c r="Y418">
         <v>25</v>
@@ -39500,13 +39500,13 @@
         <v>30</v>
       </c>
       <c r="V421">
-        <v>719062</v>
+        <v>718726</v>
       </c>
       <c r="W421">
-        <v>654346</v>
+        <v>654041</v>
       </c>
       <c r="X421">
-        <v>762206</v>
+        <v>769037</v>
       </c>
       <c r="Y421">
         <v>17</v>
@@ -39574,13 +39574,13 @@
         <v>30</v>
       </c>
       <c r="V422">
-        <v>0</v>
+        <v>626814</v>
       </c>
       <c r="W422">
-        <v>0</v>
+        <v>576669</v>
       </c>
       <c r="X422">
-        <v>0</v>
+        <v>683227</v>
       </c>
       <c r="Y422">
         <v>29</v>
@@ -39722,13 +39722,13 @@
         <v>30</v>
       </c>
       <c r="V424">
-        <v>0</v>
+        <v>717537</v>
       </c>
       <c r="W424">
-        <v>0</v>
+        <v>638608</v>
       </c>
       <c r="X424">
-        <v>0</v>
+        <v>803641</v>
       </c>
       <c r="Y424">
         <v>42</v>
@@ -39802,13 +39802,13 @@
         <v>30</v>
       </c>
       <c r="V425">
-        <v>419044</v>
+        <v>419063</v>
       </c>
       <c r="W425">
-        <v>398092</v>
+        <v>398110</v>
       </c>
       <c r="X425">
-        <v>439996</v>
+        <v>440016</v>
       </c>
       <c r="Y425">
         <v>32</v>
@@ -39882,13 +39882,13 @@
         <v>30</v>
       </c>
       <c r="V426">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W426">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X426">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y426">
         <v>22</v>
@@ -39962,13 +39962,13 @@
         <v>30</v>
       </c>
       <c r="V427">
-        <v>1417569</v>
+        <v>1412943</v>
       </c>
       <c r="W427">
-        <v>1219109</v>
+        <v>1243390</v>
       </c>
       <c r="X427">
-        <v>1715258</v>
+        <v>1752049</v>
       </c>
       <c r="Y427">
         <v>33</v>
@@ -40042,13 +40042,13 @@
         <v>30</v>
       </c>
       <c r="V428">
-        <v>231577</v>
+        <v>231276</v>
       </c>
       <c r="W428">
-        <v>213051</v>
+        <v>212774</v>
       </c>
       <c r="X428">
-        <v>250103</v>
+        <v>249778</v>
       </c>
       <c r="Y428">
         <v>33</v>
@@ -40196,13 +40196,13 @@
         <v>30</v>
       </c>
       <c r="V430">
-        <v>0</v>
+        <v>388235</v>
       </c>
       <c r="W430">
-        <v>0</v>
+        <v>361059</v>
       </c>
       <c r="X430">
-        <v>0</v>
+        <v>411529</v>
       </c>
       <c r="Y430">
         <v>33</v>
@@ -40276,13 +40276,13 @@
         <v>30</v>
       </c>
       <c r="V431">
-        <v>415343</v>
+        <v>415051</v>
       </c>
       <c r="W431">
-        <v>386269</v>
+        <v>394298</v>
       </c>
       <c r="X431">
-        <v>436110</v>
+        <v>435804</v>
       </c>
       <c r="Y431">
         <v>20</v>
@@ -40356,13 +40356,13 @@
         <v>30</v>
       </c>
       <c r="V432">
-        <v>405139</v>
+        <v>404574</v>
       </c>
       <c r="W432">
-        <v>380831</v>
+        <v>384345</v>
       </c>
       <c r="X432">
-        <v>425396</v>
+        <v>428848</v>
       </c>
       <c r="Y432">
         <v>20</v>
@@ -40430,13 +40430,13 @@
         <v>30</v>
       </c>
       <c r="V433">
-        <v>417328</v>
+        <v>418295</v>
       </c>
       <c r="W433">
-        <v>375595</v>
+        <v>376466</v>
       </c>
       <c r="X433">
-        <v>467407</v>
+        <v>468490</v>
       </c>
       <c r="Y433">
         <v>15</v>
@@ -40510,13 +40510,13 @@
         <v>30</v>
       </c>
       <c r="V434">
-        <v>531204</v>
+        <v>530685</v>
       </c>
       <c r="W434">
-        <v>488708</v>
+        <v>493537</v>
       </c>
       <c r="X434">
-        <v>563076</v>
+        <v>557219</v>
       </c>
       <c r="Y434">
         <v>17</v>
@@ -40670,13 +40670,13 @@
         <v>30</v>
       </c>
       <c r="V436">
-        <v>472430</v>
+        <v>473091</v>
       </c>
       <c r="W436">
-        <v>434636</v>
+        <v>435244</v>
       </c>
       <c r="X436">
-        <v>505500</v>
+        <v>506207</v>
       </c>
       <c r="Y436">
         <v>36</v>
@@ -40750,13 +40750,13 @@
         <v>30</v>
       </c>
       <c r="V437">
-        <v>0</v>
+        <v>314764</v>
       </c>
       <c r="W437">
-        <v>0</v>
+        <v>289583</v>
       </c>
       <c r="X437">
-        <v>0</v>
+        <v>330502</v>
       </c>
       <c r="Y437">
         <v>2</v>
@@ -41046,13 +41046,13 @@
         <v>30</v>
       </c>
       <c r="V441">
-        <v>0</v>
+        <v>374731</v>
       </c>
       <c r="W441">
-        <v>0</v>
+        <v>326016</v>
       </c>
       <c r="X441">
-        <v>0</v>
+        <v>419699</v>
       </c>
       <c r="Y441">
         <v>29</v>
@@ -41194,13 +41194,13 @@
         <v>30</v>
       </c>
       <c r="V443">
-        <v>0</v>
+        <v>636228</v>
       </c>
       <c r="W443">
-        <v>0</v>
+        <v>604417</v>
       </c>
       <c r="X443">
-        <v>0</v>
+        <v>674402</v>
       </c>
       <c r="Y443">
         <v>17</v>
@@ -41499,13 +41499,13 @@
         <v>30</v>
       </c>
       <c r="V447">
-        <v>1019124</v>
+        <v>1021159</v>
       </c>
       <c r="W447">
-        <v>947785</v>
+        <v>939466</v>
       </c>
       <c r="X447">
-        <v>1131228</v>
+        <v>1133486</v>
       </c>
       <c r="Y447">
         <v>29</v>
@@ -41579,13 +41579,13 @@
         <v>30</v>
       </c>
       <c r="V448">
-        <v>911338</v>
+        <v>911694</v>
       </c>
       <c r="W448">
-        <v>865771</v>
+        <v>866109</v>
       </c>
       <c r="X448">
-        <v>956905</v>
+        <v>975513</v>
       </c>
       <c r="Y448">
         <v>17</v>
@@ -41733,13 +41733,13 @@
         <v>30</v>
       </c>
       <c r="V450">
-        <v>309147</v>
+        <v>309296</v>
       </c>
       <c r="W450">
-        <v>290598</v>
+        <v>287645</v>
       </c>
       <c r="X450">
-        <v>327696</v>
+        <v>327854</v>
       </c>
       <c r="Y450">
         <v>32</v>
@@ -42044,13 +42044,13 @@
         <v>30</v>
       </c>
       <c r="V454">
-        <v>0</v>
+        <v>512756</v>
       </c>
       <c r="W454">
-        <v>0</v>
+        <v>476863</v>
       </c>
       <c r="X454">
-        <v>0</v>
+        <v>548649</v>
       </c>
       <c r="Y454">
         <v>32</v>
@@ -42284,13 +42284,13 @@
         <v>30</v>
       </c>
       <c r="V457">
-        <v>683019</v>
+        <v>683674</v>
       </c>
       <c r="W457">
-        <v>642038</v>
+        <v>642654</v>
       </c>
       <c r="X457">
-        <v>730830</v>
+        <v>717858</v>
       </c>
       <c r="Y457">
         <v>31</v>
@@ -42364,13 +42364,13 @@
         <v>30</v>
       </c>
       <c r="V458">
-        <v>593844</v>
+        <v>594564</v>
       </c>
       <c r="W458">
-        <v>558213</v>
+        <v>552945</v>
       </c>
       <c r="X458">
-        <v>629475</v>
+        <v>630238</v>
       </c>
       <c r="Y458">
         <v>17</v>
@@ -42444,13 +42444,13 @@
         <v>30</v>
       </c>
       <c r="V459">
-        <v>0</v>
+        <v>561102</v>
       </c>
       <c r="W459">
-        <v>0</v>
+        <v>527436</v>
       </c>
       <c r="X459">
-        <v>0</v>
+        <v>600379</v>
       </c>
       <c r="Y459">
         <v>25</v>
@@ -42524,13 +42524,13 @@
         <v>30</v>
       </c>
       <c r="V460">
-        <v>347993</v>
+        <v>348325</v>
       </c>
       <c r="W460">
-        <v>320154</v>
+        <v>316976</v>
       </c>
       <c r="X460">
-        <v>375832</v>
+        <v>376191</v>
       </c>
       <c r="Y460">
         <v>25</v>
@@ -42604,13 +42604,13 @@
         <v>30</v>
       </c>
       <c r="V461">
-        <v>0</v>
+        <v>561316</v>
       </c>
       <c r="W461">
-        <v>0</v>
+        <v>533250</v>
       </c>
       <c r="X461">
-        <v>0</v>
+        <v>611834</v>
       </c>
       <c r="Y461">
         <v>25</v>
@@ -42684,13 +42684,13 @@
         <v>30</v>
       </c>
       <c r="V462">
-        <v>623771</v>
+        <v>625678</v>
       </c>
       <c r="W462">
-        <v>555156</v>
+        <v>556853</v>
       </c>
       <c r="X462">
-        <v>698624</v>
+        <v>700759</v>
       </c>
       <c r="Y462">
         <v>34</v>
@@ -42844,13 +42844,13 @@
         <v>30</v>
       </c>
       <c r="V464">
-        <v>993022</v>
+        <v>993266</v>
       </c>
       <c r="W464">
-        <v>943371</v>
+        <v>943603</v>
       </c>
       <c r="X464">
-        <v>1082394</v>
+        <v>1072727</v>
       </c>
       <c r="Y464">
         <v>33</v>
@@ -42924,13 +42924,13 @@
         <v>30</v>
       </c>
       <c r="V465">
-        <v>916205</v>
+        <v>917119</v>
       </c>
       <c r="W465">
-        <v>852071</v>
+        <v>862092</v>
       </c>
       <c r="X465">
-        <v>962015</v>
+        <v>962975</v>
       </c>
       <c r="Y465">
         <v>33</v>
@@ -43235,13 +43235,13 @@
         <v>30</v>
       </c>
       <c r="V469">
-        <v>1223093</v>
+        <v>1225205</v>
       </c>
       <c r="W469">
-        <v>1137476</v>
+        <v>1127189</v>
       </c>
       <c r="X469">
-        <v>1308710</v>
+        <v>1335473</v>
       </c>
       <c r="Y469">
         <v>42</v>
@@ -43309,13 +43309,13 @@
         <v>30</v>
       </c>
       <c r="V470">
-        <v>0</v>
+        <v>340614</v>
       </c>
       <c r="W470">
-        <v>0</v>
+        <v>320177</v>
       </c>
       <c r="X470">
-        <v>0</v>
+        <v>361051</v>
       </c>
       <c r="Y470">
         <v>32</v>
@@ -43389,13 +43389,13 @@
         <v>30</v>
       </c>
       <c r="V471">
-        <v>1382003</v>
+        <v>1382288</v>
       </c>
       <c r="W471">
-        <v>1229983</v>
+        <v>1230236</v>
       </c>
       <c r="X471">
-        <v>1547843</v>
+        <v>1548163</v>
       </c>
       <c r="Y471">
         <v>18</v>
@@ -43463,13 +43463,13 @@
         <v>30</v>
       </c>
       <c r="V472">
-        <v>0</v>
+        <v>623832</v>
       </c>
       <c r="W472">
-        <v>0</v>
+        <v>573925</v>
       </c>
       <c r="X472">
-        <v>0</v>
+        <v>673739</v>
       </c>
       <c r="Y472">
         <v>1</v>
@@ -43543,13 +43543,13 @@
         <v>30</v>
       </c>
       <c r="V473">
-        <v>622332</v>
+        <v>623832</v>
       </c>
       <c r="W473">
-        <v>578769</v>
+        <v>573925</v>
       </c>
       <c r="X473">
-        <v>678342</v>
+        <v>673739</v>
       </c>
       <c r="Y473">
         <v>1</v>
@@ -43697,13 +43697,13 @@
         <v>30</v>
       </c>
       <c r="V475">
-        <v>520683</v>
+        <v>520429</v>
       </c>
       <c r="W475">
-        <v>489442</v>
+        <v>489203</v>
       </c>
       <c r="X475">
-        <v>551924</v>
+        <v>546450</v>
       </c>
       <c r="Y475">
         <v>14</v>
@@ -43845,13 +43845,13 @@
         <v>30</v>
       </c>
       <c r="V477">
-        <v>1056251</v>
+        <v>1059449</v>
       </c>
       <c r="W477">
-        <v>982313</v>
+        <v>974693</v>
       </c>
       <c r="X477">
-        <v>1172439</v>
+        <v>1144205</v>
       </c>
       <c r="Y477">
         <v>29</v>
@@ -43919,13 +43919,13 @@
         <v>30</v>
       </c>
       <c r="V478">
-        <v>668452</v>
+        <v>669231</v>
       </c>
       <c r="W478">
-        <v>594922</v>
+        <v>588923</v>
       </c>
       <c r="X478">
-        <v>735297</v>
+        <v>756231</v>
       </c>
       <c r="Y478">
         <v>1</v>
@@ -44073,13 +44073,13 @@
         <v>30</v>
       </c>
       <c r="V480">
-        <v>0</v>
+        <v>653238</v>
       </c>
       <c r="W480">
-        <v>0</v>
+        <v>614044</v>
       </c>
       <c r="X480">
-        <v>0</v>
+        <v>698965</v>
       </c>
       <c r="Y480">
         <v>29</v>
@@ -44227,13 +44227,13 @@
         <v>30</v>
       </c>
       <c r="V482">
-        <v>560551</v>
+        <v>559757</v>
       </c>
       <c r="W482">
-        <v>532523</v>
+        <v>531769</v>
       </c>
       <c r="X482">
-        <v>588579</v>
+        <v>587745</v>
       </c>
       <c r="Y482">
         <v>32</v>
@@ -44307,13 +44307,13 @@
         <v>30</v>
       </c>
       <c r="V483">
-        <v>0</v>
+        <v>536309</v>
       </c>
       <c r="W483">
-        <v>0</v>
+        <v>493404</v>
       </c>
       <c r="X483">
-        <v>0</v>
+        <v>573851</v>
       </c>
       <c r="Y483">
         <v>16</v>
@@ -44387,13 +44387,13 @@
         <v>30</v>
       </c>
       <c r="V484">
-        <v>593410</v>
+        <v>592993</v>
       </c>
       <c r="W484">
-        <v>557805</v>
+        <v>551483</v>
       </c>
       <c r="X484">
-        <v>623080</v>
+        <v>622643</v>
       </c>
       <c r="Y484">
         <v>32</v>
@@ -44461,13 +44461,13 @@
         <v>30</v>
       </c>
       <c r="V485">
-        <v>1052842</v>
+        <v>1053650</v>
       </c>
       <c r="W485">
-        <v>905444</v>
+        <v>916675</v>
       </c>
       <c r="X485">
-        <v>1179183</v>
+        <v>1190625</v>
       </c>
       <c r="Y485">
         <v>4</v>
@@ -44541,13 +44541,13 @@
         <v>30</v>
       </c>
       <c r="V486">
-        <v>831012</v>
+        <v>832504</v>
       </c>
       <c r="W486">
-        <v>756221</v>
+        <v>749254</v>
       </c>
       <c r="X486">
-        <v>930733</v>
+        <v>924079</v>
       </c>
       <c r="Y486">
         <v>41</v>
@@ -44621,13 +44621,13 @@
         <v>30</v>
       </c>
       <c r="V487">
-        <v>0</v>
+        <v>354090</v>
       </c>
       <c r="W487">
-        <v>0</v>
+        <v>325763</v>
       </c>
       <c r="X487">
-        <v>0</v>
+        <v>385958</v>
       </c>
       <c r="Y487">
         <v>2</v>
@@ -44701,13 +44701,13 @@
         <v>30</v>
       </c>
       <c r="V488">
-        <v>294543</v>
+        <v>294509</v>
       </c>
       <c r="W488">
-        <v>268034</v>
+        <v>268003</v>
       </c>
       <c r="X488">
-        <v>323997</v>
+        <v>323960</v>
       </c>
       <c r="Y488">
         <v>32</v>
@@ -44861,13 +44861,13 @@
         <v>30</v>
       </c>
       <c r="V490">
-        <v>494561</v>
+        <v>493969</v>
       </c>
       <c r="W490">
-        <v>454996</v>
+        <v>449512</v>
       </c>
       <c r="X490">
-        <v>519289</v>
+        <v>523607</v>
       </c>
       <c r="Y490">
         <v>13</v>
@@ -45175,13 +45175,13 @@
         <v>30</v>
       </c>
       <c r="V494">
-        <v>365882</v>
+        <v>366274</v>
       </c>
       <c r="W494">
-        <v>347588</v>
+        <v>347960</v>
       </c>
       <c r="X494">
-        <v>384176</v>
+        <v>384588</v>
       </c>
       <c r="Y494">
         <v>34</v>
@@ -45255,13 +45255,13 @@
         <v>30</v>
       </c>
       <c r="V495">
-        <v>363668</v>
+        <v>364341</v>
       </c>
       <c r="W495">
-        <v>334575</v>
+        <v>335194</v>
       </c>
       <c r="X495">
-        <v>396398</v>
+        <v>397132</v>
       </c>
       <c r="Y495">
         <v>2</v>
@@ -45335,13 +45335,13 @@
         <v>30</v>
       </c>
       <c r="V496">
-        <v>1583765</v>
+        <v>1584687</v>
       </c>
       <c r="W496">
-        <v>1425389</v>
+        <v>1426218</v>
       </c>
       <c r="X496">
-        <v>1742141</v>
+        <v>1695615</v>
       </c>
       <c r="Y496">
         <v>4</v>
@@ -45489,13 +45489,13 @@
         <v>30</v>
       </c>
       <c r="V498">
-        <v>594440</v>
+        <v>594156</v>
       </c>
       <c r="W498">
-        <v>564718</v>
+        <v>564448</v>
       </c>
       <c r="X498">
-        <v>636051</v>
+        <v>629805</v>
       </c>
       <c r="Y498">
         <v>29</v>
@@ -46010,13 +46010,13 @@
         <v>30</v>
       </c>
       <c r="V505">
-        <v>547527</v>
+        <v>548313</v>
       </c>
       <c r="W505">
-        <v>503725</v>
+        <v>504448</v>
       </c>
       <c r="X505">
-        <v>591329</v>
+        <v>592178</v>
       </c>
       <c r="Y505">
         <v>32</v>
@@ -46318,13 +46318,13 @@
         <v>30</v>
       </c>
       <c r="V509">
-        <v>0</v>
+        <v>827290</v>
       </c>
       <c r="W509">
-        <v>0</v>
+        <v>785926</v>
       </c>
       <c r="X509">
-        <v>0</v>
+        <v>876927</v>
       </c>
       <c r="Y509">
         <v>43</v>
@@ -46472,13 +46472,13 @@
         <v>30</v>
       </c>
       <c r="V511">
-        <v>484403</v>
+        <v>484841</v>
       </c>
       <c r="W511">
-        <v>455339</v>
+        <v>460599</v>
       </c>
       <c r="X511">
-        <v>508623</v>
+        <v>513931</v>
       </c>
       <c r="Y511">
         <v>32</v>
@@ -46546,13 +46546,13 @@
         <v>30</v>
       </c>
       <c r="V512">
-        <v>0</v>
+        <v>915748</v>
       </c>
       <c r="W512">
-        <v>0</v>
+        <v>787543</v>
       </c>
       <c r="X512">
-        <v>0</v>
+        <v>1144685</v>
       </c>
       <c r="Y512">
         <v>18</v>
@@ -46768,13 +46768,13 @@
         <v>30</v>
       </c>
       <c r="V515">
-        <v>806425</v>
+        <v>806231</v>
       </c>
       <c r="W515">
-        <v>766104</v>
+        <v>765919</v>
       </c>
       <c r="X515">
-        <v>846746</v>
+        <v>846543</v>
       </c>
       <c r="Y515">
         <v>32</v>
@@ -46922,13 +46922,13 @@
         <v>30</v>
       </c>
       <c r="V517">
-        <v>151822</v>
+        <v>151808</v>
       </c>
       <c r="W517">
-        <v>139676</v>
+        <v>141181</v>
       </c>
       <c r="X517">
-        <v>163968</v>
+        <v>165471</v>
       </c>
       <c r="Y517">
         <v>43</v>
@@ -47002,13 +47002,13 @@
         <v>30</v>
       </c>
       <c r="V518">
-        <v>718726</v>
+        <v>718788</v>
       </c>
       <c r="W518">
-        <v>654041</v>
+        <v>654097</v>
       </c>
       <c r="X518">
-        <v>783411</v>
+        <v>783479</v>
       </c>
       <c r="Y518">
         <v>42</v>
@@ -47082,13 +47082,13 @@
         <v>30</v>
       </c>
       <c r="V519">
-        <v>415343</v>
+        <v>415051</v>
       </c>
       <c r="W519">
-        <v>386269</v>
+        <v>394298</v>
       </c>
       <c r="X519">
-        <v>436110</v>
+        <v>435804</v>
       </c>
       <c r="Y519">
         <v>20</v>
@@ -47156,13 +47156,13 @@
         <v>30</v>
       </c>
       <c r="V520">
-        <v>248019</v>
+        <v>247991</v>
       </c>
       <c r="W520">
-        <v>235618</v>
+        <v>235591</v>
       </c>
       <c r="X520">
-        <v>260420</v>
+        <v>260391</v>
       </c>
       <c r="Y520">
         <v>32</v>
@@ -47316,13 +47316,13 @@
         <v>30</v>
       </c>
       <c r="V522">
-        <v>0</v>
+        <v>448101</v>
       </c>
       <c r="W522">
-        <v>0</v>
+        <v>425696</v>
       </c>
       <c r="X522">
-        <v>0</v>
+        <v>474987</v>
       </c>
       <c r="Y522">
         <v>32</v>
@@ -47396,13 +47396,13 @@
         <v>30</v>
       </c>
       <c r="V523">
-        <v>169508</v>
+        <v>168700</v>
       </c>
       <c r="W523">
-        <v>147472</v>
+        <v>140021</v>
       </c>
       <c r="X523">
-        <v>201715</v>
+        <v>199066</v>
       </c>
       <c r="Y523">
         <v>22</v>
@@ -47470,13 +47470,13 @@
         <v>30</v>
       </c>
       <c r="V524">
-        <v>0</v>
+        <v>443212</v>
       </c>
       <c r="W524">
-        <v>0</v>
+        <v>394459</v>
       </c>
       <c r="X524">
-        <v>0</v>
+        <v>487533</v>
       </c>
       <c r="Y524">
         <v>13</v>
@@ -47550,13 +47550,13 @@
         <v>30</v>
       </c>
       <c r="V525">
-        <v>1178054</v>
+        <v>1176318</v>
       </c>
       <c r="W525">
-        <v>1107371</v>
+        <v>1082213</v>
       </c>
       <c r="X525">
-        <v>1272298</v>
+        <v>1258660</v>
       </c>
       <c r="Y525">
         <v>32</v>
@@ -47624,13 +47624,13 @@
         <v>30</v>
       </c>
       <c r="V526">
-        <v>0</v>
+        <v>761423</v>
       </c>
       <c r="W526">
-        <v>0</v>
+        <v>708123</v>
       </c>
       <c r="X526">
-        <v>0</v>
+        <v>814723</v>
       </c>
       <c r="Y526">
         <v>2</v>
@@ -47698,13 +47698,13 @@
         <v>30</v>
       </c>
       <c r="V527">
-        <v>620652</v>
+        <v>621180</v>
       </c>
       <c r="W527">
-        <v>583413</v>
+        <v>590121</v>
       </c>
       <c r="X527">
-        <v>657891</v>
+        <v>652239</v>
       </c>
       <c r="Y527">
         <v>32</v>
@@ -47778,13 +47778,13 @@
         <v>30</v>
       </c>
       <c r="V528">
-        <v>906823</v>
+        <v>906470</v>
       </c>
       <c r="W528">
-        <v>861482</v>
+        <v>852082</v>
       </c>
       <c r="X528">
-        <v>961232</v>
+        <v>969923</v>
       </c>
       <c r="Y528">
         <v>32</v>
@@ -47858,13 +47858,13 @@
         <v>30</v>
       </c>
       <c r="V529">
-        <v>403237</v>
+        <v>402566</v>
       </c>
       <c r="W529">
-        <v>370978</v>
+        <v>374386</v>
       </c>
       <c r="X529">
-        <v>431464</v>
+        <v>430746</v>
       </c>
       <c r="Y529">
         <v>32</v>
@@ -48012,13 +48012,13 @@
         <v>30</v>
       </c>
       <c r="V531">
-        <v>1177024</v>
+        <v>1176705</v>
       </c>
       <c r="W531">
-        <v>1082862</v>
+        <v>1082569</v>
       </c>
       <c r="X531">
-        <v>1294726</v>
+        <v>1259074</v>
       </c>
       <c r="Y531">
         <v>32</v>
@@ -48092,13 +48092,13 @@
         <v>30</v>
       </c>
       <c r="V532">
-        <v>553917</v>
+        <v>554634</v>
       </c>
       <c r="W532">
-        <v>526221</v>
+        <v>526902</v>
       </c>
       <c r="X532">
-        <v>581613</v>
+        <v>582366</v>
       </c>
       <c r="Y532">
         <v>32</v>
@@ -48166,13 +48166,13 @@
         <v>30</v>
       </c>
       <c r="V533">
-        <v>1136733</v>
+        <v>1137244</v>
       </c>
       <c r="W533">
-        <v>1079896</v>
+        <v>1057637</v>
       </c>
       <c r="X533">
-        <v>1227672</v>
+        <v>1228224</v>
       </c>
       <c r="Y533">
         <v>32</v>
@@ -48246,13 +48246,13 @@
         <v>30</v>
       </c>
       <c r="V534">
-        <v>619316</v>
+        <v>619516</v>
       </c>
       <c r="W534">
-        <v>588350</v>
+        <v>588540</v>
       </c>
       <c r="X534">
-        <v>650282</v>
+        <v>650492</v>
       </c>
       <c r="Y534">
         <v>32</v>
@@ -48394,13 +48394,13 @@
         <v>30</v>
       </c>
       <c r="V536">
-        <v>0</v>
+        <v>522403</v>
       </c>
       <c r="W536">
-        <v>0</v>
+        <v>475387</v>
       </c>
       <c r="X536">
-        <v>0</v>
+        <v>553747</v>
       </c>
       <c r="Y536">
         <v>43</v>
@@ -48468,13 +48468,13 @@
         <v>30</v>
       </c>
       <c r="V537">
-        <v>312400</v>
+        <v>312710</v>
       </c>
       <c r="W537">
-        <v>281160</v>
+        <v>281439</v>
       </c>
       <c r="X537">
-        <v>331144</v>
+        <v>334600</v>
       </c>
       <c r="Y537">
         <v>32</v>
@@ -48548,13 +48548,13 @@
         <v>30</v>
       </c>
       <c r="V538">
-        <v>0</v>
+        <v>362790</v>
       </c>
       <c r="W538">
-        <v>0</v>
+        <v>330139</v>
       </c>
       <c r="X538">
-        <v>0</v>
+        <v>384557</v>
       </c>
       <c r="Y538">
         <v>20</v>
@@ -48628,13 +48628,13 @@
         <v>30</v>
       </c>
       <c r="V539">
-        <v>0</v>
+        <v>584862</v>
       </c>
       <c r="W539">
-        <v>0</v>
+        <v>549770</v>
       </c>
       <c r="X539">
-        <v>0</v>
+        <v>614105</v>
       </c>
       <c r="Y539">
         <v>43</v>
@@ -48708,13 +48708,13 @@
         <v>30</v>
       </c>
       <c r="V540">
-        <v>354706</v>
+        <v>354090</v>
       </c>
       <c r="W540">
-        <v>326330</v>
+        <v>325763</v>
       </c>
       <c r="X540">
-        <v>386630</v>
+        <v>385958</v>
       </c>
       <c r="Y540">
         <v>2</v>
@@ -48782,13 +48782,13 @@
         <v>30</v>
       </c>
       <c r="V541">
-        <v>0</v>
+        <v>421471</v>
       </c>
       <c r="W541">
-        <v>0</v>
+        <v>400397</v>
       </c>
       <c r="X541">
-        <v>0</v>
+        <v>442545</v>
       </c>
       <c r="Y541">
         <v>32</v>
@@ -48936,13 +48936,13 @@
         <v>30</v>
       </c>
       <c r="V543">
-        <v>0</v>
+        <v>1056830</v>
       </c>
       <c r="W543">
-        <v>0</v>
+        <v>982852</v>
       </c>
       <c r="X543">
-        <v>0</v>
+        <v>1141376</v>
       </c>
       <c r="Y543">
         <v>32</v>
@@ -49010,13 +49010,13 @@
         <v>30</v>
       </c>
       <c r="V544">
-        <v>988285</v>
+        <v>987592</v>
       </c>
       <c r="W544">
-        <v>928988</v>
+        <v>938212</v>
       </c>
       <c r="X544">
-        <v>1077231</v>
+        <v>1056723</v>
       </c>
       <c r="Y544">
         <v>32</v>
@@ -49090,13 +49090,13 @@
         <v>30</v>
       </c>
       <c r="V545">
-        <v>1392847</v>
+        <v>1390907</v>
       </c>
       <c r="W545">
-        <v>1295348</v>
+        <v>1293544</v>
       </c>
       <c r="X545">
-        <v>1559989</v>
+        <v>1543907</v>
       </c>
       <c r="Y545">
         <v>32</v>
@@ -49170,13 +49170,13 @@
         <v>30</v>
       </c>
       <c r="V546">
-        <v>0</v>
+        <v>429178</v>
       </c>
       <c r="W546">
-        <v>0</v>
+        <v>407719</v>
       </c>
       <c r="X546">
-        <v>0</v>
+        <v>459220</v>
       </c>
       <c r="Y546">
         <v>32</v>
@@ -49244,13 +49244,13 @@
         <v>30</v>
       </c>
       <c r="V547">
-        <v>0</v>
+        <v>442299</v>
       </c>
       <c r="W547">
-        <v>0</v>
+        <v>402492</v>
       </c>
       <c r="X547">
-        <v>0</v>
+        <v>490952</v>
       </c>
       <c r="Y547">
         <v>32</v>
@@ -49324,13 +49324,13 @@
         <v>30</v>
       </c>
       <c r="V548">
-        <v>0</v>
+        <v>323459</v>
       </c>
       <c r="W548">
-        <v>0</v>
+        <v>304051</v>
       </c>
       <c r="X548">
-        <v>0</v>
+        <v>346101</v>
       </c>
       <c r="Y548">
         <v>32</v>
@@ -49398,13 +49398,13 @@
         <v>30</v>
       </c>
       <c r="V549">
-        <v>0</v>
+        <v>874651</v>
       </c>
       <c r="W549">
-        <v>0</v>
+        <v>795932</v>
       </c>
       <c r="X549">
-        <v>0</v>
+        <v>944623</v>
       </c>
       <c r="Y549">
         <v>32</v>
@@ -49478,13 +49478,13 @@
         <v>30</v>
       </c>
       <c r="V550">
-        <v>0</v>
+        <v>670824</v>
       </c>
       <c r="W550">
-        <v>0</v>
+        <v>630575</v>
       </c>
       <c r="X550">
-        <v>0</v>
+        <v>711073</v>
       </c>
       <c r="Y550">
         <v>32</v>
@@ -49638,13 +49638,13 @@
         <v>30</v>
       </c>
       <c r="V552">
-        <v>0</v>
+        <v>652685</v>
       </c>
       <c r="W552">
-        <v>0</v>
+        <v>620051</v>
       </c>
       <c r="X552">
-        <v>0</v>
+        <v>685319</v>
       </c>
       <c r="Y552">
         <v>32</v>
@@ -49718,13 +49718,13 @@
         <v>30</v>
       </c>
       <c r="V553">
-        <v>0</v>
+        <v>850575</v>
       </c>
       <c r="W553">
-        <v>0</v>
+        <v>774023</v>
       </c>
       <c r="X553">
-        <v>0</v>
+        <v>935632</v>
       </c>
       <c r="Y553">
         <v>43</v>
@@ -49792,13 +49792,13 @@
         <v>30</v>
       </c>
       <c r="V554">
-        <v>0</v>
+        <v>420280</v>
       </c>
       <c r="W554">
-        <v>0</v>
+        <v>399266</v>
       </c>
       <c r="X554">
-        <v>0</v>
+        <v>441294</v>
       </c>
       <c r="Y554">
         <v>32</v>
@@ -49872,13 +49872,13 @@
         <v>30</v>
       </c>
       <c r="V555">
-        <v>0</v>
+        <v>309296</v>
       </c>
       <c r="W555">
-        <v>0</v>
+        <v>287645</v>
       </c>
       <c r="X555">
-        <v>0</v>
+        <v>327854</v>
       </c>
       <c r="Y555">
         <v>32</v>
@@ -50026,13 +50026,13 @@
         <v>30</v>
       </c>
       <c r="V557">
-        <v>0</v>
+        <v>996779</v>
       </c>
       <c r="W557">
-        <v>0</v>
+        <v>907069</v>
       </c>
       <c r="X557">
-        <v>0</v>
+        <v>1096457</v>
       </c>
       <c r="Y557">
         <v>32</v>
@@ -50100,13 +50100,13 @@
         <v>30</v>
       </c>
       <c r="V558">
-        <v>820532</v>
+        <v>820113</v>
       </c>
       <c r="W558">
-        <v>771300</v>
+        <v>762705</v>
       </c>
       <c r="X558">
-        <v>886175</v>
+        <v>885722</v>
       </c>
       <c r="Y558">
         <v>32</v>
@@ -50174,13 +50174,13 @@
         <v>30</v>
       </c>
       <c r="V559">
-        <v>0</v>
+        <v>1562581</v>
       </c>
       <c r="W559">
-        <v>0</v>
+        <v>1421949</v>
       </c>
       <c r="X559">
-        <v>0</v>
+        <v>1750091</v>
       </c>
       <c r="Y559">
         <v>32</v>
@@ -50248,13 +50248,13 @@
         <v>30</v>
       </c>
       <c r="V560">
-        <v>0</v>
+        <v>678313</v>
       </c>
       <c r="W560">
-        <v>0</v>
+        <v>644397</v>
       </c>
       <c r="X560">
-        <v>0</v>
+        <v>712229</v>
       </c>
       <c r="Y560">
         <v>32</v>
@@ -50328,13 +50328,13 @@
         <v>30</v>
       </c>
       <c r="V561">
-        <v>0</v>
+        <v>418295</v>
       </c>
       <c r="W561">
-        <v>0</v>
+        <v>376466</v>
       </c>
       <c r="X561">
-        <v>0</v>
+        <v>468490</v>
       </c>
       <c r="Y561">
         <v>15</v>
@@ -50402,13 +50402,13 @@
         <v>30</v>
       </c>
       <c r="V562">
-        <v>770611</v>
+        <v>771326</v>
       </c>
       <c r="W562">
-        <v>732080</v>
+        <v>732760</v>
       </c>
       <c r="X562">
-        <v>816848</v>
+        <v>809892</v>
       </c>
       <c r="Y562">
         <v>2</v>
@@ -50476,13 +50476,13 @@
         <v>30</v>
       </c>
       <c r="V563">
-        <v>0</v>
+        <v>515799</v>
       </c>
       <c r="W563">
-        <v>0</v>
+        <v>479693</v>
       </c>
       <c r="X563">
-        <v>0</v>
+        <v>551905</v>
       </c>
       <c r="Y563">
         <v>32</v>
@@ -50550,13 +50550,13 @@
         <v>30</v>
       </c>
       <c r="V564">
-        <v>786928</v>
+        <v>785395</v>
       </c>
       <c r="W564">
-        <v>723974</v>
+        <v>722563</v>
       </c>
       <c r="X564">
-        <v>857752</v>
+        <v>863934</v>
       </c>
       <c r="Y564">
         <v>32</v>
@@ -50624,13 +50624,13 @@
         <v>30</v>
       </c>
       <c r="V565">
-        <v>0</v>
+        <v>891957</v>
       </c>
       <c r="W565">
-        <v>0</v>
+        <v>811681</v>
       </c>
       <c r="X565">
-        <v>0</v>
+        <v>981153</v>
       </c>
       <c r="Y565">
         <v>32</v>
@@ -50698,13 +50698,13 @@
         <v>30</v>
       </c>
       <c r="V566">
-        <v>0</v>
+        <v>970315</v>
       </c>
       <c r="W566">
-        <v>0</v>
+        <v>892690</v>
       </c>
       <c r="X566">
-        <v>0</v>
+        <v>1067346</v>
       </c>
       <c r="Y566">
         <v>32</v>
@@ -50772,13 +50772,13 @@
         <v>30</v>
       </c>
       <c r="V567">
-        <v>898145</v>
+        <v>897962</v>
       </c>
       <c r="W567">
-        <v>853238</v>
+        <v>844084</v>
       </c>
       <c r="X567">
-        <v>952034</v>
+        <v>969799</v>
       </c>
       <c r="Y567">
         <v>32</v>
@@ -50846,13 +50846,13 @@
         <v>30</v>
       </c>
       <c r="V568">
-        <v>0</v>
+        <v>340304</v>
       </c>
       <c r="W568">
-        <v>0</v>
+        <v>316483</v>
       </c>
       <c r="X568">
-        <v>0</v>
+        <v>364125</v>
       </c>
       <c r="Y568">
         <v>32</v>
@@ -50926,13 +50926,13 @@
         <v>30</v>
       </c>
       <c r="V569">
-        <v>0</v>
+        <v>672578</v>
       </c>
       <c r="W569">
-        <v>0</v>
+        <v>638949</v>
       </c>
       <c r="X569">
-        <v>0</v>
+        <v>712933</v>
       </c>
       <c r="Y569">
         <v>32</v>
@@ -51006,13 +51006,13 @@
         <v>30</v>
       </c>
       <c r="V570">
-        <v>0</v>
+        <v>843684</v>
       </c>
       <c r="W570">
-        <v>0</v>
+        <v>801500</v>
       </c>
       <c r="X570">
-        <v>0</v>
+        <v>902742</v>
       </c>
       <c r="Y570">
         <v>32</v>
@@ -51080,13 +51080,13 @@
         <v>30</v>
       </c>
       <c r="V571">
-        <v>0</v>
+        <v>517884</v>
       </c>
       <c r="W571">
-        <v>0</v>
+        <v>491990</v>
       </c>
       <c r="X571">
-        <v>0</v>
+        <v>543778</v>
       </c>
       <c r="Y571">
         <v>32</v>
@@ -51160,13 +51160,13 @@
         <v>30</v>
       </c>
       <c r="V572">
-        <v>1306660</v>
+        <v>1306240</v>
       </c>
       <c r="W572">
-        <v>1110661</v>
+        <v>1149491</v>
       </c>
       <c r="X572">
-        <v>1515726</v>
+        <v>1476051</v>
       </c>
       <c r="Y572">
         <v>31</v>
@@ -51240,13 +51240,13 @@
         <v>30</v>
       </c>
       <c r="V573">
-        <v>0</v>
+        <v>550252</v>
       </c>
       <c r="W573">
-        <v>0</v>
+        <v>517237</v>
       </c>
       <c r="X573">
-        <v>0</v>
+        <v>605277</v>
       </c>
       <c r="Y573">
         <v>43</v>
@@ -51320,13 +51320,13 @@
         <v>30</v>
       </c>
       <c r="V574">
-        <v>0</v>
+        <v>426797</v>
       </c>
       <c r="W574">
-        <v>0</v>
+        <v>388385</v>
       </c>
       <c r="X574">
-        <v>0</v>
+        <v>460941</v>
       </c>
       <c r="Y574">
         <v>32</v>
@@ -51394,13 +51394,13 @@
         <v>30</v>
       </c>
       <c r="V575">
-        <v>392007</v>
+        <v>391918</v>
       </c>
       <c r="W575">
-        <v>368487</v>
+        <v>368403</v>
       </c>
       <c r="X575">
-        <v>419447</v>
+        <v>415433</v>
       </c>
       <c r="Y575">
         <v>32</v>
@@ -51474,13 +51474,13 @@
         <v>30</v>
       </c>
       <c r="V576">
-        <v>0</v>
+        <v>454750</v>
       </c>
       <c r="W576">
-        <v>0</v>
+        <v>400180</v>
       </c>
       <c r="X576">
-        <v>0</v>
+        <v>495678</v>
       </c>
       <c r="Y576">
         <v>32</v>
@@ -51702,13 +51702,13 @@
         <v>30</v>
       </c>
       <c r="V579">
-        <v>0</v>
+        <v>455224</v>
       </c>
       <c r="W579">
-        <v>0</v>
+        <v>423358</v>
       </c>
       <c r="X579">
-        <v>0</v>
+        <v>477985</v>
       </c>
       <c r="Y579">
         <v>32</v>
@@ -51782,13 +51782,13 @@
         <v>30</v>
       </c>
       <c r="V580">
-        <v>1343336</v>
+        <v>1343478</v>
       </c>
       <c r="W580">
-        <v>1262736</v>
+        <v>1249435</v>
       </c>
       <c r="X580">
-        <v>1464236</v>
+        <v>1464391</v>
       </c>
       <c r="Y580">
         <v>6</v>
@@ -51862,13 +51862,13 @@
         <v>30</v>
       </c>
       <c r="V581">
-        <v>739580</v>
+        <v>738282</v>
       </c>
       <c r="W581">
-        <v>665622</v>
+        <v>664454</v>
       </c>
       <c r="X581">
-        <v>820934</v>
+        <v>812110</v>
       </c>
       <c r="Y581">
         <v>25</v>
@@ -52022,13 +52022,13 @@
         <v>30</v>
       </c>
       <c r="V583">
-        <v>0</v>
+        <v>405819</v>
       </c>
       <c r="W583">
-        <v>0</v>
+        <v>385528</v>
       </c>
       <c r="X583">
-        <v>0</v>
+        <v>438285</v>
       </c>
       <c r="Y583">
         <v>32</v>
@@ -52254,13 +52254,13 @@
         <v>30</v>
       </c>
       <c r="V586">
-        <v>0</v>
+        <v>327346</v>
       </c>
       <c r="W586">
-        <v>0</v>
+        <v>307705</v>
       </c>
       <c r="X586">
-        <v>0</v>
+        <v>343713</v>
       </c>
       <c r="Y586">
         <v>39</v>
@@ -52334,13 +52334,13 @@
         <v>30</v>
       </c>
       <c r="V587">
-        <v>0</v>
+        <v>653734</v>
       </c>
       <c r="W587">
-        <v>0</v>
+        <v>607973</v>
       </c>
       <c r="X587">
-        <v>0</v>
+        <v>686421</v>
       </c>
       <c r="Y587">
         <v>32</v>
@@ -52482,13 +52482,13 @@
         <v>30</v>
       </c>
       <c r="V589">
-        <v>0</v>
+        <v>312916</v>
       </c>
       <c r="W589">
-        <v>0</v>
+        <v>284754</v>
       </c>
       <c r="X589">
-        <v>0</v>
+        <v>344208</v>
       </c>
       <c r="Y589">
         <v>32</v>
@@ -52556,13 +52556,13 @@
         <v>30</v>
       </c>
       <c r="V590">
-        <v>0</v>
+        <v>612168</v>
       </c>
       <c r="W590">
-        <v>0</v>
+        <v>557073</v>
       </c>
       <c r="X590">
-        <v>0</v>
+        <v>673385</v>
       </c>
       <c r="Y590">
         <v>43</v>
@@ -52636,13 +52636,13 @@
         <v>30</v>
       </c>
       <c r="V591">
-        <v>0</v>
+        <v>496898</v>
       </c>
       <c r="W591">
-        <v>0</v>
+        <v>462115</v>
       </c>
       <c r="X591">
-        <v>0</v>
+        <v>521743</v>
       </c>
       <c r="Y591">
         <v>32</v>
@@ -52790,13 +52790,13 @@
         <v>30</v>
       </c>
       <c r="V593">
-        <v>0</v>
+        <v>453218</v>
       </c>
       <c r="W593">
-        <v>0</v>
+        <v>430557</v>
       </c>
       <c r="X593">
-        <v>0</v>
+        <v>475879</v>
       </c>
       <c r="Y593">
         <v>32</v>
@@ -52864,13 +52864,13 @@
         <v>30</v>
       </c>
       <c r="V594">
-        <v>0</v>
+        <v>881965</v>
       </c>
       <c r="W594">
-        <v>0</v>
+        <v>837867</v>
       </c>
       <c r="X594">
-        <v>0</v>
+        <v>926063</v>
       </c>
       <c r="Y594">
         <v>13</v>
@@ -52938,13 +52938,13 @@
         <v>30</v>
       </c>
       <c r="V595">
-        <v>0</v>
+        <v>529462</v>
       </c>
       <c r="W595">
-        <v>0</v>
+        <v>487105</v>
       </c>
       <c r="X595">
-        <v>0</v>
+        <v>582408</v>
       </c>
       <c r="Y595">
         <v>43</v>
@@ -53018,13 +53018,13 @@
         <v>30</v>
       </c>
       <c r="V596">
-        <v>0</v>
+        <v>412348</v>
       </c>
       <c r="W596">
-        <v>0</v>
+        <v>371113</v>
       </c>
       <c r="X596">
-        <v>0</v>
+        <v>441212</v>
       </c>
       <c r="Y596">
         <v>32</v>
@@ -53098,13 +53098,13 @@
         <v>30</v>
       </c>
       <c r="V597">
-        <v>0</v>
+        <v>497803</v>
       </c>
       <c r="W597">
-        <v>0</v>
+        <v>472913</v>
       </c>
       <c r="X597">
-        <v>0</v>
+        <v>522693</v>
       </c>
       <c r="Y597">
         <v>41</v>
@@ -53172,13 +53172,13 @@
         <v>30</v>
       </c>
       <c r="V598">
-        <v>0</v>
+        <v>304624</v>
       </c>
       <c r="W598">
-        <v>0</v>
+        <v>280254</v>
       </c>
       <c r="X598">
-        <v>0</v>
+        <v>322901</v>
       </c>
       <c r="Y598">
         <v>2</v>
@@ -53252,13 +53252,13 @@
         <v>30</v>
       </c>
       <c r="V599">
-        <v>0</v>
+        <v>1052842</v>
       </c>
       <c r="W599">
-        <v>0</v>
+        <v>905444</v>
       </c>
       <c r="X599">
-        <v>0</v>
+        <v>1179183</v>
       </c>
       <c r="Y599">
         <v>4</v>
@@ -53326,13 +53326,13 @@
         <v>30</v>
       </c>
       <c r="V600">
-        <v>0</v>
+        <v>117834</v>
       </c>
       <c r="W600">
-        <v>0</v>
+        <v>100159</v>
       </c>
       <c r="X600">
-        <v>0</v>
+        <v>137866</v>
       </c>
       <c r="Y600">
         <v>41</v>
@@ -53400,13 +53400,13 @@
         <v>30</v>
       </c>
       <c r="V601">
-        <v>0</v>
+        <v>636507</v>
       </c>
       <c r="W601">
-        <v>0</v>
+        <v>585586</v>
       </c>
       <c r="X601">
-        <v>0</v>
+        <v>687428</v>
       </c>
       <c r="Y601">
         <v>18</v>
@@ -53480,13 +53480,13 @@
         <v>30</v>
       </c>
       <c r="V602">
-        <v>0</v>
+        <v>600998</v>
       </c>
       <c r="W602">
-        <v>0</v>
+        <v>516858</v>
       </c>
       <c r="X602">
-        <v>0</v>
+        <v>667108</v>
       </c>
       <c r="Y602">
         <v>20</v>
@@ -53634,13 +53634,13 @@
         <v>30</v>
       </c>
       <c r="V604">
-        <v>0</v>
+        <v>413557</v>
       </c>
       <c r="W604">
-        <v>0</v>
+        <v>388744</v>
       </c>
       <c r="X604">
-        <v>0</v>
+        <v>434235</v>
       </c>
       <c r="Y604">
         <v>43</v>
@@ -53708,13 +53708,13 @@
         <v>30</v>
       </c>
       <c r="V605">
-        <v>0</v>
+        <v>617074</v>
       </c>
       <c r="W605">
-        <v>0</v>
+        <v>586220</v>
       </c>
       <c r="X605">
-        <v>0</v>
+        <v>647928</v>
       </c>
       <c r="Y605">
         <v>32</v>
@@ -53788,13 +53788,13 @@
         <v>30</v>
       </c>
       <c r="V606">
-        <v>0</v>
+        <v>496673</v>
       </c>
       <c r="W606">
-        <v>0</v>
+        <v>466873</v>
       </c>
       <c r="X606">
-        <v>0</v>
+        <v>521507</v>
       </c>
       <c r="Y606">
         <v>31</v>
@@ -53862,13 +53862,13 @@
         <v>30</v>
       </c>
       <c r="V607">
-        <v>0</v>
+        <v>1078043</v>
       </c>
       <c r="W607">
-        <v>0</v>
+        <v>1002580</v>
       </c>
       <c r="X607">
-        <v>0</v>
+        <v>1142726</v>
       </c>
       <c r="Y607">
         <v>32</v>
@@ -53942,13 +53942,13 @@
         <v>30</v>
       </c>
       <c r="V608">
-        <v>413312</v>
+        <v>413746</v>
       </c>
       <c r="W608">
-        <v>371981</v>
+        <v>372371</v>
       </c>
       <c r="X608">
-        <v>458776</v>
+        <v>459258</v>
       </c>
       <c r="Y608">
         <v>15</v>
@@ -54016,13 +54016,13 @@
         <v>30</v>
       </c>
       <c r="V609">
-        <v>0</v>
+        <v>839778</v>
       </c>
       <c r="W609">
-        <v>0</v>
+        <v>797789</v>
       </c>
       <c r="X609">
-        <v>0</v>
+        <v>881767</v>
       </c>
       <c r="Y609">
         <v>3</v>
@@ -54090,13 +54090,13 @@
         <v>30</v>
       </c>
       <c r="V610">
-        <v>0</v>
+        <v>760705</v>
       </c>
       <c r="W610">
-        <v>0</v>
+        <v>722670</v>
       </c>
       <c r="X610">
-        <v>0</v>
+        <v>798740</v>
       </c>
       <c r="Y610">
         <v>20</v>
@@ -54164,13 +54164,13 @@
         <v>30</v>
       </c>
       <c r="V611">
-        <v>0</v>
+        <v>915725</v>
       </c>
       <c r="W611">
-        <v>0</v>
+        <v>869939</v>
       </c>
       <c r="X611">
-        <v>0</v>
+        <v>961511</v>
       </c>
       <c r="Y611">
         <v>3</v>
@@ -54244,13 +54244,13 @@
         <v>30</v>
       </c>
       <c r="V612">
-        <v>0</v>
+        <v>775203</v>
       </c>
       <c r="W612">
-        <v>0</v>
+        <v>713187</v>
       </c>
       <c r="X612">
-        <v>0</v>
+        <v>837219</v>
       </c>
       <c r="Y612">
         <v>25</v>
@@ -54324,13 +54324,13 @@
         <v>30</v>
       </c>
       <c r="V613">
-        <v>756733</v>
+        <v>756774</v>
       </c>
       <c r="W613">
-        <v>718896</v>
+        <v>718935</v>
       </c>
       <c r="X613">
-        <v>809704</v>
+        <v>817316</v>
       </c>
       <c r="Y613">
         <v>32</v>
@@ -54472,13 +54472,13 @@
         <v>30</v>
       </c>
       <c r="V615">
-        <v>0</v>
+        <v>468793</v>
       </c>
       <c r="W615">
-        <v>0</v>
+        <v>435977</v>
       </c>
       <c r="X615">
-        <v>0</v>
+        <v>501609</v>
       </c>
       <c r="Y615">
         <v>32</v>
@@ -54546,13 +54546,13 @@
         <v>30</v>
       </c>
       <c r="V616">
-        <v>0</v>
+        <v>479675</v>
       </c>
       <c r="W616">
-        <v>0</v>
+        <v>455691</v>
       </c>
       <c r="X616">
-        <v>0</v>
+        <v>503659</v>
       </c>
       <c r="Y616">
         <v>32</v>
@@ -54626,13 +54626,13 @@
         <v>30</v>
       </c>
       <c r="V617">
-        <v>0</v>
+        <v>551759</v>
       </c>
       <c r="W617">
-        <v>0</v>
+        <v>524171</v>
       </c>
       <c r="X617">
-        <v>0</v>
+        <v>579347</v>
       </c>
       <c r="Y617">
         <v>13</v>
@@ -54700,13 +54700,13 @@
         <v>30</v>
       </c>
       <c r="V618">
-        <v>0</v>
+        <v>365179</v>
       </c>
       <c r="W618">
-        <v>0</v>
+        <v>332313</v>
       </c>
       <c r="X618">
-        <v>0</v>
+        <v>401697</v>
       </c>
       <c r="Y618">
         <v>36</v>
@@ -54854,13 +54854,13 @@
         <v>30</v>
       </c>
       <c r="V620">
-        <v>593410</v>
+        <v>592993</v>
       </c>
       <c r="W620">
-        <v>557805</v>
+        <v>551483</v>
       </c>
       <c r="X620">
-        <v>623080</v>
+        <v>622643</v>
       </c>
       <c r="Y620">
         <v>32</v>
@@ -55008,13 +55008,13 @@
         <v>30</v>
       </c>
       <c r="V622">
-        <v>0</v>
+        <v>432018</v>
       </c>
       <c r="W622">
-        <v>0</v>
+        <v>406097</v>
       </c>
       <c r="X622">
-        <v>0</v>
+        <v>466579</v>
       </c>
       <c r="Y622">
         <v>31</v>
@@ -55088,13 +55088,13 @@
         <v>30</v>
       </c>
       <c r="V623">
-        <v>0</v>
+        <v>460434</v>
       </c>
       <c r="W623">
-        <v>0</v>
+        <v>423599</v>
       </c>
       <c r="X623">
-        <v>0</v>
+        <v>501873</v>
       </c>
       <c r="Y623">
         <v>2</v>
@@ -55168,13 +55168,13 @@
         <v>30</v>
       </c>
       <c r="V624">
-        <v>0</v>
+        <v>489056</v>
       </c>
       <c r="W624">
-        <v>0</v>
+        <v>459713</v>
       </c>
       <c r="X624">
-        <v>0</v>
+        <v>513509</v>
       </c>
       <c r="Y624">
         <v>33</v>
@@ -55242,13 +55242,13 @@
         <v>30</v>
       </c>
       <c r="V625">
-        <v>0</v>
+        <v>503863</v>
       </c>
       <c r="W625">
-        <v>0</v>
+        <v>468593</v>
       </c>
       <c r="X625">
-        <v>0</v>
+        <v>529056</v>
       </c>
       <c r="Y625">
         <v>2</v>
@@ -55402,13 +55402,13 @@
         <v>30</v>
       </c>
       <c r="V627">
-        <v>354706</v>
+        <v>354090</v>
       </c>
       <c r="W627">
-        <v>326330</v>
+        <v>325763</v>
       </c>
       <c r="X627">
-        <v>386630</v>
+        <v>385958</v>
       </c>
       <c r="Y627">
         <v>2</v>
@@ -55476,13 +55476,13 @@
         <v>30</v>
       </c>
       <c r="V628">
-        <v>0</v>
+        <v>506765</v>
       </c>
       <c r="W628">
-        <v>0</v>
+        <v>481427</v>
       </c>
       <c r="X628">
-        <v>0</v>
+        <v>532103</v>
       </c>
       <c r="Y628">
         <v>32</v>
@@ -55550,13 +55550,13 @@
         <v>30</v>
       </c>
       <c r="V629">
-        <v>0</v>
+        <v>615747</v>
       </c>
       <c r="W629">
-        <v>0</v>
+        <v>584960</v>
       </c>
       <c r="X629">
-        <v>0</v>
+        <v>646534</v>
       </c>
       <c r="Y629">
         <v>32</v>
@@ -55710,13 +55710,13 @@
         <v>30</v>
       </c>
       <c r="V631">
-        <v>0</v>
+        <v>878271</v>
       </c>
       <c r="W631">
-        <v>0</v>
+        <v>834357</v>
       </c>
       <c r="X631">
-        <v>0</v>
+        <v>922185</v>
       </c>
       <c r="Y631">
         <v>20</v>
@@ -55790,13 +55790,13 @@
         <v>30</v>
       </c>
       <c r="V632">
-        <v>0</v>
+        <v>514672</v>
       </c>
       <c r="W632">
-        <v>0</v>
+        <v>488938</v>
       </c>
       <c r="X632">
-        <v>0</v>
+        <v>545552</v>
       </c>
       <c r="Y632">
         <v>32</v>
@@ -55870,13 +55870,13 @@
         <v>30</v>
       </c>
       <c r="V633">
-        <v>0</v>
+        <v>669623</v>
       </c>
       <c r="W633">
-        <v>0</v>
+        <v>622749</v>
       </c>
       <c r="X633">
-        <v>0</v>
+        <v>723193</v>
       </c>
       <c r="Y633">
         <v>32</v>
@@ -55944,13 +55944,13 @@
         <v>30</v>
       </c>
       <c r="V634">
-        <v>0</v>
+        <v>510614</v>
       </c>
       <c r="W634">
-        <v>0</v>
+        <v>485083</v>
       </c>
       <c r="X634">
-        <v>0</v>
+        <v>536145</v>
       </c>
       <c r="Y634">
         <v>32</v>
@@ -56018,13 +56018,13 @@
         <v>30</v>
       </c>
       <c r="V635">
-        <v>0</v>
+        <v>695545</v>
       </c>
       <c r="W635">
-        <v>0</v>
+        <v>646857</v>
       </c>
       <c r="X635">
-        <v>0</v>
+        <v>737278</v>
       </c>
       <c r="Y635">
         <v>32</v>
@@ -56468,13 +56468,13 @@
         <v>30</v>
       </c>
       <c r="V641">
-        <v>0</v>
+        <v>474450</v>
       </c>
       <c r="W641">
-        <v>0</v>
+        <v>450728</v>
       </c>
       <c r="X641">
-        <v>0</v>
+        <v>498172</v>
       </c>
       <c r="Y641">
         <v>32</v>
@@ -56542,13 +56542,13 @@
         <v>30</v>
       </c>
       <c r="V642">
-        <v>458515</v>
+        <v>458786</v>
       </c>
       <c r="W642">
-        <v>412664</v>
+        <v>408320</v>
       </c>
       <c r="X642">
-        <v>495196</v>
+        <v>490901</v>
       </c>
       <c r="Y642">
         <v>41</v>
@@ -56616,13 +56616,13 @@
         <v>30</v>
       </c>
       <c r="V643">
-        <v>440969</v>
+        <v>440450</v>
       </c>
       <c r="W643">
-        <v>405691</v>
+        <v>409618</v>
       </c>
       <c r="X643">
-        <v>471837</v>
+        <v>466877</v>
       </c>
       <c r="Y643">
         <v>32</v>
@@ -56696,13 +56696,13 @@
         <v>30</v>
       </c>
       <c r="V644">
-        <v>0</v>
+        <v>292010</v>
       </c>
       <c r="W644">
-        <v>0</v>
+        <v>274489</v>
       </c>
       <c r="X644">
-        <v>0</v>
+        <v>309531</v>
       </c>
       <c r="Y644">
         <v>41</v>
@@ -56850,13 +56850,13 @@
         <v>30</v>
       </c>
       <c r="V646">
-        <v>0</v>
+        <v>684818</v>
       </c>
       <c r="W646">
-        <v>0</v>
+        <v>650577</v>
       </c>
       <c r="X646">
-        <v>0</v>
+        <v>732755</v>
       </c>
       <c r="Y646">
         <v>41</v>
@@ -56930,13 +56930,13 @@
         <v>30</v>
       </c>
       <c r="V647">
-        <v>0</v>
+        <v>771357</v>
       </c>
       <c r="W647">
-        <v>0</v>
+        <v>732789</v>
       </c>
       <c r="X647">
-        <v>0</v>
+        <v>809925</v>
       </c>
       <c r="Y647">
         <v>12</v>
@@ -57004,13 +57004,13 @@
         <v>30</v>
       </c>
       <c r="V648">
-        <v>0</v>
+        <v>428547</v>
       </c>
       <c r="W648">
-        <v>0</v>
+        <v>398549</v>
       </c>
       <c r="X648">
-        <v>0</v>
+        <v>449974</v>
       </c>
       <c r="Y648">
         <v>11</v>
@@ -57158,13 +57158,13 @@
         <v>30</v>
       </c>
       <c r="V650">
-        <v>0</v>
+        <v>960683</v>
       </c>
       <c r="W650">
-        <v>0</v>
+        <v>883828</v>
       </c>
       <c r="X650">
-        <v>0</v>
+        <v>1056751</v>
       </c>
       <c r="Y650">
         <v>32</v>
@@ -57312,13 +57312,13 @@
         <v>30</v>
       </c>
       <c r="V652">
-        <v>0</v>
+        <v>430239</v>
       </c>
       <c r="W652">
-        <v>0</v>
+        <v>408727</v>
       </c>
       <c r="X652">
-        <v>0</v>
+        <v>456053</v>
       </c>
       <c r="Y652">
         <v>32</v>
@@ -57460,13 +57460,13 @@
         <v>30</v>
       </c>
       <c r="V654">
-        <v>0</v>
+        <v>568142</v>
       </c>
       <c r="W654">
-        <v>0</v>
+        <v>539735</v>
       </c>
       <c r="X654">
-        <v>0</v>
+        <v>602231</v>
       </c>
       <c r="Y654">
         <v>32</v>
@@ -57540,13 +57540,13 @@
         <v>30</v>
       </c>
       <c r="V655">
-        <v>0</v>
+        <v>1201504</v>
       </c>
       <c r="W655">
-        <v>0</v>
+        <v>1081354</v>
       </c>
       <c r="X655">
-        <v>0</v>
+        <v>1321654</v>
       </c>
       <c r="Y655">
         <v>32</v>
@@ -57620,13 +57620,13 @@
         <v>30</v>
       </c>
       <c r="V656">
-        <v>0</v>
+        <v>634542</v>
       </c>
       <c r="W656">
-        <v>0</v>
+        <v>602815</v>
       </c>
       <c r="X656">
-        <v>0</v>
+        <v>666269</v>
       </c>
       <c r="Y656">
         <v>32</v>
@@ -57700,13 +57700,13 @@
         <v>30</v>
       </c>
       <c r="V657">
-        <v>0</v>
+        <v>384465</v>
       </c>
       <c r="W657">
-        <v>0</v>
+        <v>365242</v>
       </c>
       <c r="X657">
-        <v>0</v>
+        <v>403688</v>
       </c>
       <c r="Y657">
         <v>14</v>
@@ -57774,13 +57774,13 @@
         <v>30</v>
       </c>
       <c r="V658">
-        <v>0</v>
+        <v>611842</v>
       </c>
       <c r="W658">
-        <v>0</v>
+        <v>581250</v>
       </c>
       <c r="X658">
-        <v>0</v>
+        <v>648553</v>
       </c>
       <c r="Y658">
         <v>32</v>
@@ -57848,13 +57848,13 @@
         <v>30</v>
       </c>
       <c r="V659">
-        <v>0</v>
+        <v>570249</v>
       </c>
       <c r="W659">
-        <v>0</v>
+        <v>518927</v>
       </c>
       <c r="X659">
-        <v>0</v>
+        <v>621571</v>
       </c>
       <c r="Y659">
         <v>32</v>
@@ -57928,13 +57928,13 @@
         <v>30</v>
       </c>
       <c r="V660">
-        <v>0</v>
+        <v>539153</v>
       </c>
       <c r="W660">
-        <v>0</v>
+        <v>512195</v>
       </c>
       <c r="X660">
-        <v>0</v>
+        <v>566111</v>
       </c>
       <c r="Y660">
         <v>32</v>
@@ -58002,13 +58002,13 @@
         <v>30</v>
       </c>
       <c r="V661">
-        <v>0</v>
+        <v>1476388</v>
       </c>
       <c r="W661">
-        <v>0</v>
+        <v>1284458</v>
       </c>
       <c r="X661">
-        <v>0</v>
+        <v>1579735</v>
       </c>
       <c r="Y661">
         <v>22</v>
@@ -58076,13 +58076,13 @@
         <v>30</v>
       </c>
       <c r="V662">
-        <v>0</v>
+        <v>259965</v>
       </c>
       <c r="W662">
-        <v>0</v>
+        <v>241767</v>
       </c>
       <c r="X662">
-        <v>0</v>
+        <v>275563</v>
       </c>
       <c r="Y662">
         <v>21</v>
@@ -58150,13 +58150,13 @@
         <v>30</v>
       </c>
       <c r="V663">
-        <v>0</v>
+        <v>777474</v>
       </c>
       <c r="W663">
-        <v>0</v>
+        <v>738600</v>
       </c>
       <c r="X663">
-        <v>0</v>
+        <v>816348</v>
       </c>
       <c r="Y663">
         <v>20</v>
@@ -58378,13 +58378,13 @@
         <v>30</v>
       </c>
       <c r="V666">
-        <v>0</v>
+        <v>972009</v>
       </c>
       <c r="W666">
-        <v>0</v>
+        <v>903968</v>
       </c>
       <c r="X666">
-        <v>0</v>
+        <v>1030330</v>
       </c>
       <c r="Y666">
         <v>29</v>
@@ -58458,13 +58458,13 @@
         <v>30</v>
       </c>
       <c r="V667">
-        <v>0</v>
+        <v>168700</v>
       </c>
       <c r="W667">
-        <v>0</v>
+        <v>140021</v>
       </c>
       <c r="X667">
-        <v>0</v>
+        <v>199066</v>
       </c>
       <c r="Y667">
         <v>22</v>
@@ -58538,13 +58538,13 @@
         <v>30</v>
       </c>
       <c r="V668">
-        <v>0</v>
+        <v>315254</v>
       </c>
       <c r="W668">
-        <v>0</v>
+        <v>286881</v>
       </c>
       <c r="X668">
-        <v>0</v>
+        <v>340474</v>
       </c>
       <c r="Y668">
         <v>13</v>
@@ -58698,13 +58698,13 @@
         <v>30</v>
       </c>
       <c r="V670">
-        <v>0</v>
+        <v>614948</v>
       </c>
       <c r="W670">
-        <v>0</v>
+        <v>584201</v>
       </c>
       <c r="X670">
-        <v>0</v>
+        <v>651845</v>
       </c>
       <c r="Y670">
         <v>32</v>
@@ -58778,13 +58778,13 @@
         <v>30</v>
       </c>
       <c r="V671">
-        <v>0</v>
+        <v>967803</v>
       </c>
       <c r="W671">
-        <v>0</v>
+        <v>900057</v>
       </c>
       <c r="X671">
-        <v>0</v>
+        <v>1054905</v>
       </c>
       <c r="Y671">
         <v>2</v>
@@ -58858,13 +58858,13 @@
         <v>30</v>
       </c>
       <c r="V672">
-        <v>0</v>
+        <v>697691</v>
       </c>
       <c r="W672">
-        <v>0</v>
+        <v>648853</v>
       </c>
       <c r="X672">
-        <v>0</v>
+        <v>739552</v>
       </c>
       <c r="Y672">
         <v>13</v>
@@ -58938,13 +58938,13 @@
         <v>30</v>
       </c>
       <c r="V673">
-        <v>0</v>
+        <v>465897</v>
       </c>
       <c r="W673">
-        <v>0</v>
+        <v>423966</v>
       </c>
       <c r="X673">
-        <v>0</v>
+        <v>498510</v>
       </c>
       <c r="Y673">
         <v>32</v>
@@ -59012,13 +59012,13 @@
         <v>30</v>
       </c>
       <c r="V674">
-        <v>0</v>
+        <v>433577</v>
       </c>
       <c r="W674">
-        <v>0</v>
+        <v>407562</v>
       </c>
       <c r="X674">
-        <v>0</v>
+        <v>463927</v>
       </c>
       <c r="Y674">
         <v>32</v>
@@ -59092,13 +59092,13 @@
         <v>30</v>
       </c>
       <c r="V675">
-        <v>0</v>
+        <v>367174</v>
       </c>
       <c r="W675">
-        <v>0</v>
+        <v>345144</v>
       </c>
       <c r="X675">
-        <v>0</v>
+        <v>396548</v>
       </c>
       <c r="Y675">
         <v>0</v>
@@ -59172,13 +59172,13 @@
         <v>30</v>
       </c>
       <c r="V676">
-        <v>0</v>
+        <v>1449526</v>
       </c>
       <c r="W676">
-        <v>0</v>
+        <v>1377050</v>
       </c>
       <c r="X676">
-        <v>0</v>
+        <v>1536498</v>
       </c>
       <c r="Y676">
         <v>31</v>
@@ -59252,13 +59252,13 @@
         <v>30</v>
       </c>
       <c r="V677">
-        <v>0</v>
+        <v>466095</v>
       </c>
       <c r="W677">
-        <v>0</v>
+        <v>442790</v>
       </c>
       <c r="X677">
-        <v>0</v>
+        <v>489400</v>
       </c>
       <c r="Y677">
         <v>32</v>
@@ -59326,13 +59326,13 @@
         <v>30</v>
       </c>
       <c r="V678">
-        <v>0</v>
+        <v>538983</v>
       </c>
       <c r="W678">
-        <v>0</v>
+        <v>501254</v>
       </c>
       <c r="X678">
-        <v>0</v>
+        <v>576712</v>
       </c>
       <c r="Y678">
         <v>32</v>
@@ -59406,13 +59406,13 @@
         <v>30</v>
       </c>
       <c r="V679">
-        <v>0</v>
+        <v>1075007</v>
       </c>
       <c r="W679">
-        <v>0</v>
+        <v>956756</v>
       </c>
       <c r="X679">
-        <v>0</v>
+        <v>1150257</v>
       </c>
       <c r="Y679">
         <v>6</v>
@@ -59483,13 +59483,13 @@
         <v>30</v>
       </c>
       <c r="V680">
-        <v>0</v>
+        <v>464077</v>
       </c>
       <c r="W680">
-        <v>0</v>
+        <v>413029</v>
       </c>
       <c r="X680">
-        <v>0</v>
+        <v>533689</v>
       </c>
       <c r="Y680">
         <v>32</v>
@@ -59785,13 +59785,13 @@
         <v>30</v>
       </c>
       <c r="V684">
-        <v>0</v>
+        <v>711270</v>
       </c>
       <c r="W684">
-        <v>0</v>
+        <v>661481</v>
       </c>
       <c r="X684">
-        <v>0</v>
+        <v>775284</v>
       </c>
       <c r="Y684">
         <v>18</v>
@@ -59939,13 +59939,13 @@
         <v>30</v>
       </c>
       <c r="V686">
-        <v>0</v>
+        <v>623462</v>
       </c>
       <c r="W686">
-        <v>0</v>
+        <v>573585</v>
       </c>
       <c r="X686">
-        <v>0</v>
+        <v>673339</v>
       </c>
       <c r="Y686">
         <v>43</v>
@@ -60093,13 +60093,13 @@
         <v>30</v>
       </c>
       <c r="V688">
-        <v>0</v>
+        <v>740534</v>
       </c>
       <c r="W688">
-        <v>0</v>
+        <v>703507</v>
       </c>
       <c r="X688">
-        <v>0</v>
+        <v>777561</v>
       </c>
       <c r="Y688">
         <v>32</v>
@@ -60327,13 +60327,13 @@
         <v>30</v>
       </c>
       <c r="V691">
-        <v>0</v>
+        <v>1164794</v>
       </c>
       <c r="W691">
-        <v>0</v>
+        <v>1094906</v>
       </c>
       <c r="X691">
-        <v>0</v>
+        <v>1223034</v>
       </c>
       <c r="Y691">
         <v>34</v>
@@ -60567,13 +60567,13 @@
         <v>30</v>
       </c>
       <c r="V694">
-        <v>0</v>
+        <v>4188699</v>
       </c>
       <c r="W694">
-        <v>0</v>
+        <v>3769829</v>
       </c>
       <c r="X694">
-        <v>0</v>
+        <v>4649456</v>
       </c>
       <c r="Y694">
         <v>42</v>
@@ -60647,13 +60647,13 @@
         <v>30</v>
       </c>
       <c r="V695">
-        <v>0</v>
+        <v>4188699</v>
       </c>
       <c r="W695">
-        <v>0</v>
+        <v>3769829</v>
       </c>
       <c r="X695">
-        <v>0</v>
+        <v>4649456</v>
       </c>
       <c r="Y695">
         <v>42</v>
@@ -60727,13 +60727,13 @@
         <v>30</v>
       </c>
       <c r="V696">
-        <v>0</v>
+        <v>614857</v>
       </c>
       <c r="W696">
-        <v>0</v>
+        <v>584114</v>
       </c>
       <c r="X696">
-        <v>0</v>
+        <v>645600</v>
       </c>
       <c r="Y696">
         <v>32</v>
@@ -60807,13 +60807,13 @@
         <v>30</v>
       </c>
       <c r="V697">
-        <v>0</v>
+        <v>2401102</v>
       </c>
       <c r="W697">
-        <v>0</v>
+        <v>2281047</v>
       </c>
       <c r="X697">
-        <v>0</v>
+        <v>2569179</v>
       </c>
       <c r="Y697">
         <v>30</v>
@@ -60961,13 +60961,13 @@
         <v>30</v>
       </c>
       <c r="V699">
-        <v>0</v>
+        <v>596869</v>
       </c>
       <c r="W699">
-        <v>0</v>
+        <v>555088</v>
       </c>
       <c r="X699">
-        <v>0</v>
+        <v>638650</v>
       </c>
       <c r="Y699">
         <v>13</v>
@@ -61035,13 +61035,13 @@
         <v>30</v>
       </c>
       <c r="V700">
-        <v>0</v>
+        <v>552006</v>
       </c>
       <c r="W700">
-        <v>0</v>
+        <v>502325</v>
       </c>
       <c r="X700">
-        <v>0</v>
+        <v>596166</v>
       </c>
       <c r="Y700">
         <v>32</v>
@@ -61115,13 +61115,13 @@
         <v>30</v>
       </c>
       <c r="V701">
-        <v>0</v>
+        <v>861646</v>
       </c>
       <c r="W701">
-        <v>0</v>
+        <v>775481</v>
       </c>
       <c r="X701">
-        <v>0</v>
+        <v>939194</v>
       </c>
       <c r="Y701">
         <v>25</v>
@@ -61269,13 +61269,13 @@
         <v>30</v>
       </c>
       <c r="V703">
-        <v>0</v>
+        <v>449575</v>
       </c>
       <c r="W703">
-        <v>0</v>
+        <v>418105</v>
       </c>
       <c r="X703">
-        <v>0</v>
+        <v>472054</v>
       </c>
       <c r="Y703">
         <v>43</v>
@@ -61349,13 +61349,13 @@
         <v>30</v>
       </c>
       <c r="V704">
-        <v>0</v>
+        <v>1248539</v>
       </c>
       <c r="W704">
-        <v>0</v>
+        <v>1148656</v>
       </c>
       <c r="X704">
-        <v>0</v>
+        <v>1348422</v>
       </c>
       <c r="Y704">
         <v>4</v>
@@ -61429,13 +61429,13 @@
         <v>30</v>
       </c>
       <c r="V705">
-        <v>0</v>
+        <v>801855</v>
       </c>
       <c r="W705">
-        <v>0</v>
+        <v>729688</v>
       </c>
       <c r="X705">
-        <v>0</v>
+        <v>849966</v>
       </c>
       <c r="Y705">
         <v>31</v>
@@ -61509,13 +61509,13 @@
         <v>30</v>
       </c>
       <c r="V706">
-        <v>0</v>
+        <v>1148355</v>
       </c>
       <c r="W706">
-        <v>0</v>
+        <v>999069</v>
       </c>
       <c r="X706">
-        <v>0</v>
+        <v>1297641</v>
       </c>
       <c r="Y706">
         <v>17</v>
@@ -61589,13 +61589,13 @@
         <v>30</v>
       </c>
       <c r="V707">
-        <v>0</v>
+        <v>1148355</v>
       </c>
       <c r="W707">
-        <v>0</v>
+        <v>999069</v>
       </c>
       <c r="X707">
-        <v>0</v>
+        <v>1297641</v>
       </c>
       <c r="Y707">
         <v>17</v>
@@ -61669,13 +61669,13 @@
         <v>30</v>
       </c>
       <c r="V708">
-        <v>0</v>
+        <v>550163</v>
       </c>
       <c r="W708">
-        <v>0</v>
+        <v>495147</v>
       </c>
       <c r="X708">
-        <v>0</v>
+        <v>610681</v>
       </c>
       <c r="Y708">
         <v>42</v>
@@ -61749,13 +61749,13 @@
         <v>30</v>
       </c>
       <c r="V709">
-        <v>0</v>
+        <v>506522</v>
       </c>
       <c r="W709">
-        <v>0</v>
+        <v>476131</v>
       </c>
       <c r="X709">
-        <v>0</v>
+        <v>536913</v>
       </c>
       <c r="Y709">
         <v>42</v>
@@ -61829,13 +61829,13 @@
         <v>30</v>
       </c>
       <c r="V710">
-        <v>0</v>
+        <v>354987</v>
       </c>
       <c r="W710">
-        <v>0</v>
+        <v>333688</v>
       </c>
       <c r="X710">
-        <v>0</v>
+        <v>372736</v>
       </c>
       <c r="Y710">
         <v>2</v>
@@ -61903,13 +61903,13 @@
         <v>30</v>
       </c>
       <c r="V711">
-        <v>0</v>
+        <v>1088609</v>
       </c>
       <c r="W711">
-        <v>0</v>
+        <v>990634</v>
       </c>
       <c r="X711">
-        <v>0</v>
+        <v>1143039</v>
       </c>
       <c r="Y711">
         <v>30</v>
@@ -61983,13 +61983,13 @@
         <v>30</v>
       </c>
       <c r="V712">
-        <v>0</v>
+        <v>815781</v>
       </c>
       <c r="W712">
-        <v>0</v>
+        <v>734203</v>
       </c>
       <c r="X712">
-        <v>0</v>
+        <v>864728</v>
       </c>
       <c r="Y712">
         <v>3</v>
@@ -62057,13 +62057,13 @@
         <v>30</v>
       </c>
       <c r="V713">
-        <v>0</v>
+        <v>1248692</v>
       </c>
       <c r="W713">
-        <v>0</v>
+        <v>1186257</v>
       </c>
       <c r="X713">
-        <v>0</v>
+        <v>1336100</v>
       </c>
       <c r="Y713">
         <v>13</v>
@@ -62217,13 +62217,13 @@
         <v>30</v>
       </c>
       <c r="V715">
-        <v>0</v>
+        <v>1351160</v>
       </c>
       <c r="W715">
-        <v>0</v>
+        <v>1229556</v>
       </c>
       <c r="X715">
-        <v>0</v>
+        <v>1499788</v>
       </c>
       <c r="Y715">
         <v>3</v>
@@ -62297,13 +62297,13 @@
         <v>30</v>
       </c>
       <c r="V716">
-        <v>0</v>
+        <v>2402974</v>
       </c>
       <c r="W716">
-        <v>0</v>
+        <v>2186706</v>
       </c>
       <c r="X716">
-        <v>0</v>
+        <v>2571182</v>
       </c>
       <c r="Y716">
         <v>30</v>
@@ -62377,13 +62377,13 @@
         <v>30</v>
       </c>
       <c r="V717">
-        <v>0</v>
+        <v>2402974</v>
       </c>
       <c r="W717">
-        <v>0</v>
+        <v>2186706</v>
       </c>
       <c r="X717">
-        <v>0</v>
+        <v>2571182</v>
       </c>
       <c r="Y717">
         <v>30</v>
@@ -62457,13 +62457,13 @@
         <v>30</v>
       </c>
       <c r="V718">
-        <v>0</v>
+        <v>930193</v>
       </c>
       <c r="W718">
-        <v>0</v>
+        <v>874381</v>
       </c>
       <c r="X718">
-        <v>0</v>
+        <v>1023212</v>
       </c>
       <c r="Y718">
         <v>5</v>
@@ -62537,13 +62537,13 @@
         <v>30</v>
       </c>
       <c r="V719">
-        <v>0</v>
+        <v>2031033</v>
       </c>
       <c r="W719">
-        <v>0</v>
+        <v>1787309</v>
       </c>
       <c r="X719">
-        <v>0</v>
+        <v>2376309</v>
       </c>
       <c r="Y719">
         <v>18</v>
@@ -62617,13 +62617,13 @@
         <v>30</v>
       </c>
       <c r="V720">
-        <v>0</v>
+        <v>653683</v>
       </c>
       <c r="W720">
-        <v>0</v>
+        <v>607925</v>
       </c>
       <c r="X720">
-        <v>0</v>
+        <v>705978</v>
       </c>
       <c r="Y720">
         <v>33</v>
@@ -62697,13 +62697,13 @@
         <v>30</v>
       </c>
       <c r="V721">
-        <v>0</v>
+        <v>679884</v>
       </c>
       <c r="W721">
-        <v>0</v>
+        <v>645890</v>
       </c>
       <c r="X721">
-        <v>0</v>
+        <v>734275</v>
       </c>
       <c r="Y721">
         <v>43</v>
@@ -62771,13 +62771,13 @@
         <v>30</v>
       </c>
       <c r="V722">
-        <v>0</v>
+        <v>1498321</v>
       </c>
       <c r="W722">
-        <v>0</v>
+        <v>1393439</v>
       </c>
       <c r="X722">
-        <v>0</v>
+        <v>1588220</v>
       </c>
       <c r="Y722">
         <v>30</v>
@@ -63079,13 +63079,13 @@
         <v>30</v>
       </c>
       <c r="V726">
-        <v>0</v>
+        <v>1039908</v>
       </c>
       <c r="W726">
-        <v>0</v>
+        <v>977514</v>
       </c>
       <c r="X726">
-        <v>0</v>
+        <v>1154298</v>
       </c>
       <c r="Y726">
         <v>30</v>
@@ -63159,13 +63159,13 @@
         <v>30</v>
       </c>
       <c r="V727">
-        <v>0</v>
+        <v>931908</v>
       </c>
       <c r="W727">
-        <v>0</v>
+        <v>866674</v>
       </c>
       <c r="X727">
-        <v>0</v>
+        <v>1025099</v>
       </c>
       <c r="Y727">
         <v>43</v>
@@ -63239,13 +63239,13 @@
         <v>30</v>
       </c>
       <c r="V728">
-        <v>0</v>
+        <v>767916</v>
       </c>
       <c r="W728">
-        <v>0</v>
+        <v>714162</v>
       </c>
       <c r="X728">
-        <v>0</v>
+        <v>829349</v>
       </c>
       <c r="Y728">
         <v>30</v>
@@ -63313,13 +63313,13 @@
         <v>30</v>
       </c>
       <c r="V729">
-        <v>0</v>
+        <v>496898</v>
       </c>
       <c r="W729">
-        <v>0</v>
+        <v>462115</v>
       </c>
       <c r="X729">
-        <v>0</v>
+        <v>521743</v>
       </c>
       <c r="Y729">
         <v>32</v>
@@ -63393,13 +63393,13 @@
         <v>30</v>
       </c>
       <c r="V730">
-        <v>0</v>
+        <v>512905</v>
       </c>
       <c r="W730">
-        <v>0</v>
+        <v>482131</v>
       </c>
       <c r="X730">
-        <v>0</v>
+        <v>538550</v>
       </c>
       <c r="Y730">
         <v>32</v>
@@ -63473,13 +63473,13 @@
         <v>30</v>
       </c>
       <c r="V731">
-        <v>0</v>
+        <v>972009</v>
       </c>
       <c r="W731">
-        <v>0</v>
+        <v>903968</v>
       </c>
       <c r="X731">
-        <v>0</v>
+        <v>1030330</v>
       </c>
       <c r="Y731">
         <v>29</v>
@@ -63633,13 +63633,13 @@
         <v>30</v>
       </c>
       <c r="V733">
-        <v>0</v>
+        <v>757654</v>
       </c>
       <c r="W733">
-        <v>0</v>
+        <v>712195</v>
       </c>
       <c r="X733">
-        <v>0</v>
+        <v>818266</v>
       </c>
       <c r="Y733">
         <v>36</v>
@@ -63713,13 +63713,13 @@
         <v>30</v>
       </c>
       <c r="V734">
-        <v>0</v>
+        <v>504085</v>
       </c>
       <c r="W734">
-        <v>0</v>
+        <v>463758</v>
       </c>
       <c r="X734">
-        <v>0</v>
+        <v>549453</v>
       </c>
       <c r="Y734">
         <v>32</v>
@@ -63793,13 +63793,13 @@
         <v>30</v>
       </c>
       <c r="V735">
-        <v>0</v>
+        <v>423648</v>
       </c>
       <c r="W735">
-        <v>0</v>
+        <v>393993</v>
       </c>
       <c r="X735">
-        <v>0</v>
+        <v>453303</v>
       </c>
       <c r="Y735">
         <v>33</v>
@@ -63873,13 +63873,13 @@
         <v>30</v>
       </c>
       <c r="V736">
-        <v>0</v>
+        <v>497803</v>
       </c>
       <c r="W736">
-        <v>0</v>
+        <v>472913</v>
       </c>
       <c r="X736">
-        <v>0</v>
+        <v>522693</v>
       </c>
       <c r="Y736">
         <v>41</v>
@@ -64033,13 +64033,13 @@
         <v>30</v>
       </c>
       <c r="V738">
-        <v>0</v>
+        <v>430239</v>
       </c>
       <c r="W738">
-        <v>0</v>
+        <v>408727</v>
       </c>
       <c r="X738">
-        <v>0</v>
+        <v>456053</v>
       </c>
       <c r="Y738">
         <v>32</v>
@@ -64187,13 +64187,13 @@
         <v>30</v>
       </c>
       <c r="V740">
-        <v>0</v>
+        <v>1000269</v>
       </c>
       <c r="W740">
-        <v>0</v>
+        <v>950256</v>
       </c>
       <c r="X740">
-        <v>0</v>
+        <v>1080291</v>
       </c>
       <c r="Y740">
         <v>32</v>
@@ -64267,13 +64267,13 @@
         <v>30</v>
       </c>
       <c r="V741">
-        <v>0</v>
+        <v>528437</v>
       </c>
       <c r="W741">
-        <v>0</v>
+        <v>480878</v>
       </c>
       <c r="X741">
-        <v>0</v>
+        <v>560143</v>
       </c>
       <c r="Y741">
         <v>17</v>
@@ -64495,13 +64495,13 @@
         <v>30</v>
       </c>
       <c r="V744">
-        <v>0</v>
+        <v>429702</v>
       </c>
       <c r="W744">
-        <v>0</v>
+        <v>386732</v>
       </c>
       <c r="X744">
-        <v>0</v>
+        <v>451187</v>
       </c>
       <c r="Y744">
         <v>12</v>
@@ -64569,13 +64569,13 @@
         <v>30</v>
       </c>
       <c r="V745">
-        <v>0</v>
+        <v>506436</v>
       </c>
       <c r="W745">
-        <v>0</v>
+        <v>470985</v>
       </c>
       <c r="X745">
-        <v>0</v>
+        <v>536822</v>
       </c>
       <c r="Y745">
         <v>32</v>
@@ -64643,13 +64643,13 @@
         <v>30</v>
       </c>
       <c r="V746">
-        <v>0</v>
+        <v>430994</v>
       </c>
       <c r="W746">
-        <v>0</v>
+        <v>392205</v>
       </c>
       <c r="X746">
-        <v>0</v>
+        <v>469783</v>
       </c>
       <c r="Y746">
         <v>32</v>
@@ -64720,13 +64720,13 @@
         <v>30</v>
       </c>
       <c r="V747">
-        <v>0</v>
+        <v>1053650</v>
       </c>
       <c r="W747">
-        <v>0</v>
+        <v>916675</v>
       </c>
       <c r="X747">
-        <v>0</v>
+        <v>1190625</v>
       </c>
       <c r="Y747">
         <v>4</v>
@@ -64877,13 +64877,13 @@
         <v>30</v>
       </c>
       <c r="V749">
-        <v>0</v>
+        <v>561397</v>
       </c>
       <c r="W749">
-        <v>0</v>
+        <v>522099</v>
       </c>
       <c r="X749">
-        <v>0</v>
+        <v>595081</v>
       </c>
       <c r="Y749">
         <v>21</v>
@@ -64951,13 +64951,13 @@
         <v>30</v>
       </c>
       <c r="V750">
-        <v>0</v>
+        <v>959017</v>
       </c>
       <c r="W750">
-        <v>0</v>
+        <v>891886</v>
       </c>
       <c r="X750">
-        <v>0</v>
+        <v>1035738</v>
       </c>
       <c r="Y750">
         <v>32</v>
@@ -65025,13 +65025,13 @@
         <v>30</v>
       </c>
       <c r="V751">
-        <v>0</v>
+        <v>421471</v>
       </c>
       <c r="W751">
-        <v>0</v>
+        <v>400397</v>
       </c>
       <c r="X751">
-        <v>0</v>
+        <v>442545</v>
       </c>
       <c r="Y751">
         <v>32</v>
@@ -65105,13 +65105,13 @@
         <v>30</v>
       </c>
       <c r="V752">
-        <v>0</v>
+        <v>309296</v>
       </c>
       <c r="W752">
-        <v>0</v>
+        <v>287645</v>
       </c>
       <c r="X752">
-        <v>0</v>
+        <v>327854</v>
       </c>
       <c r="Y752">
         <v>32</v>
@@ -65185,13 +65185,13 @@
         <v>30</v>
       </c>
       <c r="V753">
-        <v>0</v>
+        <v>309296</v>
       </c>
       <c r="W753">
-        <v>0</v>
+        <v>287645</v>
       </c>
       <c r="X753">
-        <v>0</v>
+        <v>327854</v>
       </c>
       <c r="Y753">
         <v>32</v>
@@ -65389,13 +65389,13 @@
         <v>30</v>
       </c>
       <c r="V756">
-        <v>0</v>
+        <v>470059</v>
       </c>
       <c r="W756">
-        <v>0</v>
+        <v>441855</v>
       </c>
       <c r="X756">
-        <v>0</v>
+        <v>498263</v>
       </c>
       <c r="Y756">
         <v>32</v>
@@ -65760,6 +65760,15 @@
       </c>
       <c r="U761" t="s">
         <v>30</v>
+      </c>
+      <c r="V761">
+        <v>469439</v>
+      </c>
+      <c r="W761">
+        <v>441273</v>
+      </c>
+      <c r="X761">
+        <v>497605</v>
       </c>
       <c r="Y761">
         <v>32</v>

--- a/FeeneyWithHomes.xlsx
+++ b/FeeneyWithHomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\CampaignFinances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7D31B-5472-46B6-A3E3-39FE9C4F1FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9125104-3ACE-448A-8916-BFAD932025F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{598CD24A-DF45-4E5C-861C-9C38CF6856E5}"/>
+    <workbookView minimized="1" xWindow="7092" yWindow="3024" windowWidth="13824" windowHeight="7176" xr2:uid="{598CD24A-DF45-4E5C-861C-9C38CF6856E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
